--- a/protected/data/master/user.xlsx
+++ b/protected/data/master/user.xlsx
@@ -4,27 +4,98 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="555" windowWidth="18870" windowHeight="8670" activeTab="6"/>
+    <workbookView xWindow="228" yWindow="552" windowWidth="18876" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
-    <sheet name="user-system" sheetId="2" r:id="rId2"/>
-    <sheet name="user" sheetId="3" r:id="rId3"/>
-    <sheet name="user_profile" sheetId="4" r:id="rId4"/>
-    <sheet name="user_status" sheetId="5" r:id="rId5"/>
-    <sheet name="opendocman" sheetId="6" r:id="rId6"/>
-    <sheet name="user-ldap" sheetId="7" r:id="rId7"/>
-    <sheet name="README" sheetId="8" r:id="rId8"/>
+    <sheet name="user" sheetId="3" r:id="rId2"/>
+    <sheet name="user-system" sheetId="2" r:id="rId3"/>
+    <sheet name="user-ldap" sheetId="7" r:id="rId4"/>
+    <sheet name="user_profile" sheetId="4" r:id="rId5"/>
+    <sheet name="user_status" sheetId="5" r:id="rId6"/>
+    <sheet name="README" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">user!$B$1:$I$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">user!$B$1:$I$25</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="O9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Maestro will not allow duplicate email addresses when creating/updating users via web UI</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No manager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No manager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No manager</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="317">
   <si>
     <t>Reference Parameters</t>
   </si>
@@ -140,15 +211,9 @@
     <t>User</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>tswift@swiftconstructioncompany.net</t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -752,79 +817,7 @@
     <t>user file record</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin User, </t>
-  </si>
-  <si>
     <t>tcsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo User, </t>
-  </si>
-  <si>
-    <t>Barcoe Jenks, Electronics Engineer</t>
-  </si>
-  <si>
-    <t>Barton Swift, President</t>
-  </si>
-  <si>
-    <t>Bub Armstrong, Mechanical Engineer</t>
-  </si>
-  <si>
-    <t>Frank Mason, Engineering Project Coordinator</t>
-  </si>
-  <si>
-    <t>Garret Jackson, Production Planner</t>
-  </si>
-  <si>
-    <t>Hank Baldwin, Lead Hand</t>
-  </si>
-  <si>
-    <t>Helen Randall, AP Clerk</t>
-  </si>
-  <si>
-    <t>Jacab Wood, Sales Agent</t>
-  </si>
-  <si>
-    <t>James Period, Director, Sales &amp; Marketing</t>
-  </si>
-  <si>
-    <t>Jennie Haddon, Buyer</t>
-  </si>
-  <si>
-    <t>Jennie Morse, AR Clerk</t>
-  </si>
-  <si>
-    <t>John Sharp, Director, Prod Mgmt</t>
-  </si>
-  <si>
-    <t>Martha Baggert, Director, Human Resources</t>
-  </si>
-  <si>
-    <t>Mary Nestor, Director, MIS-IT</t>
-  </si>
-  <si>
-    <t>Minnie Blair, Software Engineer</t>
-  </si>
-  <si>
-    <t>Miquel DeLazes, Director, Manufacturing</t>
-  </si>
-  <si>
-    <t>Ned Newton, Chief Financial Officer</t>
-  </si>
-  <si>
-    <t>Rad Sampson, Director, Quality</t>
-  </si>
-  <si>
-    <t>Sarah Malloy, Receiver</t>
-  </si>
-  <si>
-    <t>Tom Swift, Director, Engineering</t>
-  </si>
-  <si>
-    <t>Wakefield Damon, Technical Writer</t>
-  </si>
-  <si>
-    <t>William Crawford, Director, Legal</t>
   </si>
   <si>
     <t>id</t>
@@ -969,24 +962,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Reviewer Department(s)</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>All EXCEPT Information Systems</t>
-  </si>
-  <si>
     <t>cn</t>
   </si>
   <si>
@@ -1017,12 +992,6 @@
     <t>Extend rows as necessary to include all rows in master</t>
   </si>
   <si>
-    <t>Copy column "setup_adduser" to scc/bin/setup_adduser.sh (do not copy column title)</t>
-  </si>
-  <si>
-    <t>Copy column "setup_rmuser” to scc/bin/rmuser.sh  (do not copy column title, or delete after)</t>
-  </si>
-  <si>
     <t>Data related to a specific component only is included in the relevant component's worksheet</t>
   </si>
   <si>
@@ -1032,9 +1001,6 @@
     <t>{SSHA}fPnzUPmJ8ju5UMwDrUz2tucxwIPttltZ</t>
   </si>
   <si>
-    <t>Obtain password hash using slappasswd ("slappasswd -s password")</t>
-  </si>
-  <si>
     <t>master</t>
   </si>
   <si>
@@ -1053,9 +1019,6 @@
     <t>Person is active.</t>
   </si>
   <si>
-    <t>Export ldap worksheet in CSV format to user-ldap.csv</t>
-  </si>
-  <si>
     <t>user-system</t>
   </si>
   <si>
@@ -1063,6 +1026,36 @@
   </si>
   <si>
     <t>inetOrgUser</t>
+  </si>
+  <si>
+    <t>Maestro Administrator</t>
+  </si>
+  <si>
+    <t>admin@swiftconstructioncompany.net</t>
+  </si>
+  <si>
+    <t>Maestro Demonstrator</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Copy column "username" to scc/bin/setup_rmuser.txt  (to not include column title)</t>
+  </si>
+  <si>
+    <t>Copy column "user file record" to scc/bin/setup_adduser.txt (do not include column title)</t>
+  </si>
+  <si>
+    <t>Obtain password hash for any new users using slappasswd ("slappasswd -s password")</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Export in CSV format to user-ldap.csv</t>
+  </si>
+  <si>
+    <t>Export in CSV format to user.csv (note passwords are in plain text, use appropriate security measures)</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1067,7 @@
     <numFmt numFmtId="165" formatCode="[$$-1009]#,##0.00;[Red]&quot;-&quot;[$$-1009]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-1009]#,##0.00;&quot;-&quot;[$$-1009]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -1155,6 +1148,12 @@
       <color rgb="FF333333"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1346,7 +1345,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1446,6 +1445,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1757,44 +1757,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="4" customWidth="1"/>
     <col min="4" max="5" width="8.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="4" customWidth="1"/>
     <col min="9" max="10" width="11" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="22.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="24.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="22.59765625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="24.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.75" style="4" customWidth="1"/>
+    <col min="18" max="18" width="28.69921875" style="4" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.75" style="4" customWidth="1"/>
-    <col min="22" max="22" width="9.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.25" style="4" customWidth="1"/>
-    <col min="29" max="29" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.69921875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.8984375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9.19921875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1814,21 +1814,21 @@
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="K4" s="6"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="AD6" s="16"/>
       <c r="AE6" s="39"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="12" t="s">
@@ -1883,10 +1883,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>11</v>
@@ -1964,7 +1964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1979,14 +1979,14 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="16">
@@ -1996,10 +1996,14 @@
       <c r="L8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="4" t="s">
-        <v>40</v>
+      <c r="M8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -2018,7 +2022,7 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="39"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -2026,21 +2030,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="25">
@@ -2048,12 +2052,16 @@
         <v>2</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -2072,7 +2080,7 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="41"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>3</v>
       </c>
@@ -2080,94 +2088,94 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="46">
         <v>21551</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="K10" s="25">
         <f>VLOOKUP(L10,user_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="L10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="O10" s="4" t="str">
         <f t="shared" ref="O10:O31" si="0">CONCATENATE(H10,"@",$B$2)</f>
         <v>bjenks@swiftconstructioncompany.net</v>
       </c>
       <c r="P10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W10" s="5">
         <v>13054</v>
       </c>
       <c r="X10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AA10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Z10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="AB10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD10" s="5">
         <v>13054</v>
       </c>
       <c r="AE10" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>4</v>
       </c>
@@ -2175,91 +2183,91 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="46">
         <v>14277</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K11" s="25">
         <f>VLOOKUP(L11,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="P11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="T11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W11" s="5">
         <v>13054</v>
       </c>
       <c r="X11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD11" s="5">
         <v>13054</v>
       </c>
       <c r="AE11" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -2267,94 +2275,94 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="46">
         <v>21610</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12" s="25">
         <f>VLOOKUP(L12,user_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="V12" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W12" s="5">
         <v>13054</v>
       </c>
       <c r="X12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA12" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD12" s="5">
         <v>13054</v>
       </c>
       <c r="AE12" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>6</v>
       </c>
@@ -2362,94 +2370,94 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="46">
         <v>21641</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13" s="25">
         <f>VLOOKUP(L13,user_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="V13" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W13" s="5">
         <v>13054</v>
       </c>
       <c r="X13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="5">
         <v>13054</v>
       </c>
       <c r="AE13" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -2457,94 +2465,94 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14" s="46">
         <v>21671</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14" s="25">
         <f>VLOOKUP(L14,user_profile!$B$2:$D$10,3,)</f>
         <v>5</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
       <c r="P14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="T14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W14" s="5">
         <v>13054</v>
       </c>
       <c r="X14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD14" s="5">
         <v>13054</v>
       </c>
       <c r="AE14" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>8</v>
       </c>
@@ -2552,94 +2560,94 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G15" s="46">
         <v>21702</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15" s="25">
         <f>VLOOKUP(L15,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="T15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W15" s="5">
         <v>13054</v>
       </c>
       <c r="X15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA15" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="5">
         <v>13054</v>
       </c>
       <c r="AE15" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>9</v>
       </c>
@@ -2647,94 +2655,94 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" s="46">
         <v>21732</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16" s="25">
         <f>VLOOKUP(L16,user_profile!$B$2:$D$10,3,)</f>
         <v>4</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O16" s="4" t="str">
         <f>CONCATENATE(H16,"@",$B$2)</f>
         <v>hrandall@swiftconstructioncompany.net</v>
       </c>
       <c r="P16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="T16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W16" s="5">
         <v>13054</v>
       </c>
       <c r="X16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA16" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD16" s="5">
         <v>13054</v>
       </c>
       <c r="AE16" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>10</v>
       </c>
@@ -2742,94 +2750,94 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G17" s="46">
         <v>21763</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17" s="25">
         <f>VLOOKUP(L17,user_profile!$B$2:$D$10,3,)</f>
         <v>8</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
       <c r="P17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="T17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W17" s="5">
         <v>13054</v>
       </c>
       <c r="X17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA17" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="5">
         <v>13054</v>
       </c>
       <c r="AE17" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>11</v>
       </c>
@@ -2837,94 +2845,94 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="46">
         <v>21794</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K18" s="25">
         <f>VLOOKUP(L18,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W18" s="5">
         <v>13054</v>
       </c>
       <c r="X18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA18" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD18" s="5">
         <v>13054</v>
       </c>
       <c r="AE18" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>12</v>
       </c>
@@ -2932,94 +2940,94 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G19" s="46">
         <v>21824</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K19" s="25">
         <f>VLOOKUP(L19,user_profile!$B$2:$D$10,3,)</f>
         <v>6</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="T19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W19" s="5">
         <v>13054</v>
       </c>
       <c r="X19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA19" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD19" s="5">
         <v>13054</v>
       </c>
       <c r="AE19" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>13</v>
       </c>
@@ -3027,94 +3035,94 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G20" s="46">
         <v>21855</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20" s="25">
         <f>VLOOKUP(L20,user_profile!$B$2:$D$10,3,)</f>
         <v>4</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W20" s="5">
         <v>13054</v>
       </c>
       <c r="X20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA20" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD20" s="5">
         <v>13054</v>
       </c>
       <c r="AE20" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>14</v>
       </c>
@@ -3122,94 +3130,94 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G21" s="46">
         <v>21885</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21" s="25">
         <f>VLOOKUP(L21,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W21" s="5">
         <v>13054</v>
       </c>
       <c r="X21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA21" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="5">
         <v>13054</v>
       </c>
       <c r="AE21" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>15</v>
       </c>
@@ -3217,94 +3225,94 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" s="46">
         <v>12785</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22" s="25">
         <f>VLOOKUP(L22,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W22" s="5">
         <v>13054</v>
       </c>
       <c r="X22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA22" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD22" s="5">
         <v>13054</v>
       </c>
       <c r="AE22" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>16</v>
       </c>
@@ -3312,26 +3320,26 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G23" s="46">
         <v>23815</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23" s="25">
         <f>VLOOKUP(L23,user_profile!$B$2:$D$10,3,)</f>
@@ -3341,65 +3349,65 @@
         <v>36</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W23" s="5">
         <v>13054</v>
       </c>
       <c r="X23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z23" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA23" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD23" s="5">
         <v>13054</v>
       </c>
       <c r="AE23" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>17</v>
       </c>
@@ -3407,94 +3415,94 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G24" s="46">
         <v>21976</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K24" s="25">
         <f>VLOOKUP(L24,user_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="S24" s="4" t="s">
+      <c r="T24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="V24" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W24" s="5">
         <v>13054</v>
       </c>
       <c r="X24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA24" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD24" s="5">
         <v>13054</v>
       </c>
       <c r="AE24" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>18</v>
       </c>
@@ -3502,94 +3510,94 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G25" s="46">
         <v>22007</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K25" s="25">
         <f>VLOOKUP(L25,user_profile!$B$2:$D$10,3,)</f>
         <v>7</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W25" s="5">
         <v>13054</v>
       </c>
       <c r="X25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA25" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD25" s="5">
         <v>13054</v>
       </c>
       <c r="AE25" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>19</v>
       </c>
@@ -3597,94 +3605,94 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G26" s="46">
         <v>22037</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26" s="25">
         <f>VLOOKUP(L26,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W26" s="5">
         <v>13054</v>
       </c>
       <c r="X26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z26" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA26" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD26" s="5">
         <v>13054</v>
       </c>
       <c r="AE26" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>20</v>
       </c>
@@ -3692,94 +3700,94 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G27" s="46">
         <v>13667</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27" s="25">
         <f>VLOOKUP(L27,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V27" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W27" s="5">
         <v>13054</v>
       </c>
       <c r="X27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z27" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA27" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD27" s="5">
         <v>13054</v>
       </c>
       <c r="AE27" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>21</v>
       </c>
@@ -3787,94 +3795,94 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G28" s="46">
         <v>22098</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K28" s="25">
         <f>VLOOKUP(L28,user_profile!$B$2:$D$10,3,)</f>
         <v>6</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="T28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V28" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W28" s="5">
         <v>13054</v>
       </c>
       <c r="X28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z28" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA28" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD28" s="5">
         <v>13054</v>
       </c>
       <c r="AE28" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>22</v>
       </c>
@@ -3882,94 +3890,94 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" s="46">
         <v>21879</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K29" s="25">
         <f>VLOOKUP(L29,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W29" s="5">
         <v>13054</v>
       </c>
       <c r="X29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA29" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD29" s="5">
         <v>13054</v>
       </c>
       <c r="AE29" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>23</v>
       </c>
@@ -3977,94 +3985,94 @@
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G30" s="46">
         <v>22160</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30" s="25">
         <f>VLOOKUP(L30,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
       <c r="P30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="T30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W30" s="5">
         <v>13054</v>
       </c>
       <c r="X30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z30" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA30" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD30" s="5">
         <v>13054</v>
       </c>
       <c r="AE30" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>24</v>
       </c>
@@ -4072,669 +4080,182 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G31" s="46">
         <v>22190</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31" s="25">
         <f>VLOOKUP(L31,user_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V31" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V31" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="W31" s="25">
         <v>13054</v>
       </c>
       <c r="X31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z31" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AA31" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC31" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD31" s="25">
         <v>13054</v>
       </c>
       <c r="AE31" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.5374000000000001" bottom="0.5374000000000001" header="0" footer="0"/>
   <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="6" width="8.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="7" customWidth="1"/>
-    <col min="8" max="10" width="8.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="48.75" style="7" customWidth="1"/>
-    <col min="12" max="1024" width="8.625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="7" t="str">
-        <f>CONCATENATE(A2,":",B2,":",C2,":",D2,":",E2,":",F2,":",G2,":",H2,":",I2,":",J2)</f>
-        <v>admin::::::Admin User, ::tcsh:admin</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K25" si="0">CONCATENATE(A3,":",B3,":",C3,":",D3,":",E3,":",F3,":",G3,":",H3,":",I3,":",J3)</f>
-        <v>demo::::::Demo User, ::tcsh:demo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>bjenks::::::Barcoe Jenks, Electronics Engineer::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>bswift::::::Barton Swift, President::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>barmstrong::::::Bub Armstrong, Mechanical Engineer::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>fmason::::::Frank Mason, Engineering Project Coordinator::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>gjackson::::::Garret Jackson, Production Planner::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>hbaldwin::::::Hank Baldwin, Lead Hand::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>hrandall::::::Helen Randall, AP Clerk::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>jwood::::::Jacab Wood, Sales Agent::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>jperiod::::::James Period, Director, Sales &amp; Marketing::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>jhaddon::::::Jennie Haddon, Buyer::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>jmorse::::::Jennie Morse, AR Clerk::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>jsharp::::::John Sharp, Director, Prod Mgmt::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>mbaggert::::::Martha Baggert, Director, Human Resources::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>mnestor::::::Mary Nestor, Director, MIS-IT::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>mblair::::::Minnie Blair, Software Engineer::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>mdelazes::::::Miquel DeLazes, Director, Manufacturing::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>nnewton::::::Ned Newton, Chief Financial Officer::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>rsampson::::::Rad Sampson, Director, Quality::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>smalloy::::::Sarah Malloy, Receiver::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>tswift::::::Tom Swift, Director, Engineering::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>wdamon::::::Wakefield Damon, Technical Writer::tcsh:appleton</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>wcrawford::::::William Crawford, Director, Legal::tcsh:appleton</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="8.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.19921875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4748,11 +4269,11 @@
       </c>
       <c r="D2" s="4" t="str">
         <f>master!O8</f>
-        <v>tswift@swiftconstructioncompany.net</v>
+        <v>admin@swiftconstructioncompany.net</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>master!F8</f>
-        <v>AD</v>
+        <v>AU</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>master!D8</f>
@@ -4775,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4789,10 +4310,10 @@
       </c>
       <c r="D3" s="4" t="str">
         <f>master!O9</f>
-        <v>tswift@swiftconstructioncompany.net</v>
+        <v>admin@swiftconstructioncompany.net</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>master!D9</f>
@@ -4815,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4832,7 +4353,7 @@
         <v>bjenks@swiftconstructioncompany.net</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>master!D10</f>
@@ -4855,7 +4376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4872,7 +4393,7 @@
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>master!D11</f>
@@ -4895,7 +4416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4912,7 +4433,7 @@
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>master!D12</f>
@@ -4935,7 +4456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4952,7 +4473,7 @@
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>master!D13</f>
@@ -4975,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4992,7 +4513,7 @@
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>master!D14</f>
@@ -5015,7 +4536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5032,7 +4553,7 @@
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>master!D15</f>
@@ -5055,7 +4576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5072,7 +4593,7 @@
         <v>hrandall@swiftconstructioncompany.net</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>master!D16</f>
@@ -5095,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5112,7 +4633,7 @@
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>master!D17</f>
@@ -5135,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5152,7 +4673,7 @@
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>master!D18</f>
@@ -5175,7 +4696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5192,7 +4713,7 @@
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>master!D19</f>
@@ -5215,7 +4736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5232,7 +4753,7 @@
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>master!D20</f>
@@ -5255,7 +4776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5272,7 +4793,7 @@
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>master!D21</f>
@@ -5295,7 +4816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5312,7 +4833,7 @@
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>master!D22</f>
@@ -5335,7 +4856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5352,7 +4873,7 @@
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>master!D23</f>
@@ -5375,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5392,7 +4913,7 @@
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>master!D24</f>
@@ -5415,7 +4936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5432,7 +4953,7 @@
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>master!D25</f>
@@ -5455,7 +4976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5472,7 +4993,7 @@
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>master!D26</f>
@@ -5495,7 +5016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5512,7 +5033,7 @@
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>master!D27</f>
@@ -5535,7 +5056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5552,7 +5073,7 @@
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>master!D28</f>
@@ -5575,7 +5096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5592,7 +5113,7 @@
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>master!D29</f>
@@ -5615,7 +5136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5632,7 +5153,7 @@
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>master!D30</f>
@@ -5655,7 +5176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5672,7 +5193,7 @@
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F25" s="4" t="str">
         <f>master!D31</f>
@@ -5702,96 +5223,1595 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.69921875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="73.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="1024" width="8.59765625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f>CONCATENATE(master!C8, " ",master!D8,", ",master!N8)</f>
+        <v>Admin User, Maestro Administrator</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="47" t="str">
+        <f>CONCATENATE(A2,":",B2,":",C2,":",D2,":",E2,":",F2,":",G2,":",H2,":",I2,":",J2)</f>
+        <v>admin::::::Admin User, Maestro Administrator::tcsh:admin</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f>CONCATENATE(master!C9, " ",master!D9,", ",master!N9)</f>
+        <v>Demo User, Maestro Demonstrator</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="47" t="str">
+        <f t="shared" ref="K3:K25" si="0">CONCATENATE(A3,":",B3,":",C3,":",D3,":",E3,":",F3,":",G3,":",H3,":",I3,":",J3)</f>
+        <v>demo::::::Demo User, Maestro Demonstrator::tcsh:demo</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f>CONCATENATE(master!C10, " ",master!D10,", ",master!N10)</f>
+        <v>Barcoe Jenks, Electronics Engineer</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>bjenks::::::Barcoe Jenks, Electronics Engineer::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f>CONCATENATE(master!C11, " ",master!D11,", ",master!N11)</f>
+        <v>Barton Swift, President</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>bswift::::::Barton Swift, President::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f>CONCATENATE(master!C12, " ",master!D12,", ",master!N12)</f>
+        <v>Bub Armstrong, Mechanical Engineer</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>barmstrong::::::Bub Armstrong, Mechanical Engineer::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f>CONCATENATE(master!C13, " ",master!D13,", ",master!N13)</f>
+        <v>Frank Mason, Engineering Project Coordinator</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>fmason::::::Frank Mason, Engineering Project Coordinator::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f>CONCATENATE(master!C14, " ",master!D14,", ",master!N14)</f>
+        <v>Garret Jackson, Production Planner</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>gjackson::::::Garret Jackson, Production Planner::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>CONCATENATE(master!C15, " ",master!D15,", ",master!N15)</f>
+        <v>Hank Baldwin, Lead Hand</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>hbaldwin::::::Hank Baldwin, Lead Hand::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f>CONCATENATE(master!C16, " ",master!D16,", ",master!N16)</f>
+        <v>Helen Randall, AP Clerk</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>hrandall::::::Helen Randall, AP Clerk::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f>CONCATENATE(master!C17, " ",master!D17,", ",master!N17)</f>
+        <v>Jacab Wood, Sales Agent</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>jwood::::::Jacab Wood, Sales Agent::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f>CONCATENATE(master!C18, " ",master!D18,", ",master!N18)</f>
+        <v>James Period, Director, Sales &amp; Marketing</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>jperiod::::::James Period, Director, Sales &amp; Marketing::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f>CONCATENATE(master!C19, " ",master!D19,", ",master!N19)</f>
+        <v>Jennie Haddon, Buyer</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>jhaddon::::::Jennie Haddon, Buyer::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f>CONCATENATE(master!C20, " ",master!D20,", ",master!N20)</f>
+        <v>Jennie Morse, AR Clerk</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>jmorse::::::Jennie Morse, AR Clerk::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f>CONCATENATE(master!C21, " ",master!D21,", ",master!N21)</f>
+        <v>John Sharp, Director, Prod Mgmt</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>jsharp::::::John Sharp, Director, Prod Mgmt::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f>CONCATENATE(master!C22, " ",master!D22,", ",master!N22)</f>
+        <v>Martha Baggert, Director, Human Resources</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>mbaggert::::::Martha Baggert, Director, Human Resources::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f>CONCATENATE(master!C23, " ",master!D23,", ",master!N23)</f>
+        <v>Mary Nestor, Director, MIS-IT</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>mnestor::::::Mary Nestor, Director, MIS-IT::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f>CONCATENATE(master!C24, " ",master!D24,", ",master!N24)</f>
+        <v>Minnie Blair, Software Engineer</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>mblair::::::Minnie Blair, Software Engineer::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f>CONCATENATE(master!C25, " ",master!D25,", ",master!N25)</f>
+        <v>Miquel DeLazes, Director, Manufacturing</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>mdelazes::::::Miquel DeLazes, Director, Manufacturing::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f>CONCATENATE(master!C26, " ",master!D26,", ",master!N26)</f>
+        <v>Ned Newton, Chief Financial Officer</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>nnewton::::::Ned Newton, Chief Financial Officer::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f>CONCATENATE(master!C27, " ",master!D27,", ",master!N27)</f>
+        <v>Rad Sampson, Director, Quality</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>rsampson::::::Rad Sampson, Director, Quality::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f>CONCATENATE(master!C28, " ",master!D28,", ",master!N28)</f>
+        <v>Sarah Malloy, Receiver</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>smalloy::::::Sarah Malloy, Receiver::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f>CONCATENATE(master!C29, " ",master!D29,", ",master!N29)</f>
+        <v>Tom Swift, Director, Engineering</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>tswift::::::Tom Swift, Director, Engineering::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="7" t="str">
+        <f>CONCATENATE(master!C30, " ",master!D30,", ",master!N30)</f>
+        <v>Wakefield Damon, Technical Writer</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>wdamon::::::Wakefield Damon, Technical Writer::tcsh:appleton</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f>CONCATENATE(master!C31, " ",master!D31,", ",master!N31)</f>
+        <v>William Crawford, Director, Legal</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>wcrawford::::::William Crawford, Director, Legal::tcsh:appleton</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.59765625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="40.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="1024" width="8.59765625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="str">
+        <f>CONCATENATE(master!C8, " ",master!D8)</f>
+        <v>Admin User</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f>master!C8</f>
+        <v>Admin</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>master!D8</f>
+        <v>User</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>master!N8</f>
+        <v>Maestro Administrator</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f>master!O8</f>
+        <v>admin@swiftconstructioncompany.net</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="7" t="str">
+        <f>master!H8</f>
+        <v>admin</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
+        <f>CONCATENATE(master!C9, " ",master!D9)</f>
+        <v>Demo User</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>master!C9</f>
+        <v>Demo</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>master!D9</f>
+        <v>User</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>master!N9</f>
+        <v>Maestro Demonstrator</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f>master!O9</f>
+        <v>admin@swiftconstructioncompany.net</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>master!H9</f>
+        <v>demo</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="str">
+        <f>CONCATENATE(master!C10, " ",master!D10)</f>
+        <v>Barcoe Jenks</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f>master!C10</f>
+        <v>Barcoe</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>master!D10</f>
+        <v>Jenks</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>master!N10</f>
+        <v>Electronics Engineer</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>master!O10</f>
+        <v>bjenks@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S10,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f>master!H10</f>
+        <v>bjenks</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="str">
+        <f>CONCATENATE(master!C11, " ",master!D11)</f>
+        <v>Barton Swift</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f>master!C11</f>
+        <v>Barton</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>master!D11</f>
+        <v>Swift</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>master!N11</f>
+        <v>President</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>master!O11</f>
+        <v>bswift@swiftconstructioncompany.net</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>master!H11</f>
+        <v>bswift</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="str">
+        <f>CONCATENATE(master!C12, " ",master!D12)</f>
+        <v>Bub Armstrong</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>master!C12</f>
+        <v>Bub</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>master!D12</f>
+        <v>Armstrong</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>master!N12</f>
+        <v>Mechanical Engineer</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>master!O12</f>
+        <v>barmstrong@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S12,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>master!H12</f>
+        <v>barmstrong</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f>CONCATENATE(master!C13, " ",master!D13)</f>
+        <v>Frank Mason</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>master!C13</f>
+        <v>Frank</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>master!D13</f>
+        <v>Mason</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>master!N13</f>
+        <v>Engineering Project Coordinator</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>master!O13</f>
+        <v>fmason@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S13,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>master!H13</f>
+        <v>fmason</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f>CONCATENATE(master!C14, " ",master!D14)</f>
+        <v>Garret Jackson</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f>master!C14</f>
+        <v>Garret</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>master!D14</f>
+        <v>Jackson</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>master!N14</f>
+        <v>Production Planner</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f>master!O14</f>
+        <v>gjackson@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S14,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>master!H14</f>
+        <v>gjackson</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>CONCATENATE(master!C15, " ",master!D15)</f>
+        <v>Hank Baldwin</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f>master!C15</f>
+        <v>Hank</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>master!D15</f>
+        <v>Baldwin</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>master!N15</f>
+        <v>Lead Hand</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>master!O15</f>
+        <v>hbaldwin@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S15,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>master!H15</f>
+        <v>hbaldwin</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>CONCATENATE(master!C16, " ",master!D16)</f>
+        <v>Helen Randall</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f>master!C16</f>
+        <v>Helen</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>master!D16</f>
+        <v>Randall</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>master!N16</f>
+        <v>AP Clerk</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>master!O16</f>
+        <v>hrandall@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S16,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f>master!H16</f>
+        <v>hrandall</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>CONCATENATE(master!C17, " ",master!D17)</f>
+        <v>Jacab Wood</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f>master!C17</f>
+        <v>Jacab</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>master!D17</f>
+        <v>Wood</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>master!N17</f>
+        <v>Sales Agent</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>master!O17</f>
+        <v>jwood@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S17,",ou=People,dc=root,dc=org")</f>
+        <v>cn=James Period,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f>master!H17</f>
+        <v>jwood</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>CONCATENATE(master!C18, " ",master!D18)</f>
+        <v>James Period</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>master!C18</f>
+        <v>James</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>master!D18</f>
+        <v>Period</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>master!N18</f>
+        <v>Director, Sales &amp; Marketing</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>master!O18</f>
+        <v>jperiod@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S18,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f>master!H18</f>
+        <v>jperiod</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>CONCATENATE(master!C19, " ",master!D19)</f>
+        <v>Jennie Haddon</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f>master!C19</f>
+        <v>Jennie</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>master!D19</f>
+        <v>Haddon</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>master!N19</f>
+        <v>Buyer</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f>master!O19</f>
+        <v>jhaddon@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S19,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>master!H19</f>
+        <v>jhaddon</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>CONCATENATE(master!C20, " ",master!D20)</f>
+        <v>Jennie Morse</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f>master!C20</f>
+        <v>Jennie</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>master!D20</f>
+        <v>Morse</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>master!N20</f>
+        <v>AR Clerk</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>master!O20</f>
+        <v>jmorse@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S20,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f>master!H20</f>
+        <v>jmorse</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>CONCATENATE(master!C21, " ",master!D21)</f>
+        <v>John Sharp</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f>master!C21</f>
+        <v>John</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>master!D21</f>
+        <v>Sharp</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>master!N21</f>
+        <v>Director, Prod Mgmt</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>master!O21</f>
+        <v>jsharp@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S21,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f>master!H21</f>
+        <v>jsharp</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>CONCATENATE(master!C22, " ",master!D22)</f>
+        <v>Martha Baggert</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f>master!C22</f>
+        <v>Martha</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>master!D22</f>
+        <v>Baggert</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>master!N22</f>
+        <v>Director, Human Resources</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>master!O22</f>
+        <v>mbaggert@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S22,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f>master!H22</f>
+        <v>mbaggert</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>CONCATENATE(master!C23, " ",master!D23)</f>
+        <v>Mary Nestor</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f>master!C23</f>
+        <v>Mary</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>master!D23</f>
+        <v>Nestor</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>master!N23</f>
+        <v>Director, MIS-IT</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>master!O23</f>
+        <v>mnestor@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S23,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>master!H23</f>
+        <v>mnestor</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>CONCATENATE(master!C24, " ",master!D24)</f>
+        <v>Minnie Blair</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f>master!C24</f>
+        <v>Minnie</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>master!D24</f>
+        <v>Blair</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>master!N24</f>
+        <v>Software Engineer</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>master!O24</f>
+        <v>mblair@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S24,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f>master!H24</f>
+        <v>mblair</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>CONCATENATE(master!C25, " ",master!D25)</f>
+        <v>Miquel DeLazes</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f>master!C25</f>
+        <v>Miquel</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>master!D25</f>
+        <v>DeLazes</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f>master!N25</f>
+        <v>Director, Manufacturing</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>master!O25</f>
+        <v>mdelazes@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S25,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f>master!H25</f>
+        <v>mdelazes</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>CONCATENATE(master!C26, " ",master!D26)</f>
+        <v>Ned Newton</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f>master!C26</f>
+        <v>Ned</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>master!D26</f>
+        <v>Newton</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f>master!N26</f>
+        <v>Chief Financial Officer</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>master!O26</f>
+        <v>nnewton@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S26,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f>master!H26</f>
+        <v>nnewton</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>CONCATENATE(master!C27, " ",master!D27)</f>
+        <v>Rad Sampson</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f>master!C27</f>
+        <v>Rad</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>master!D27</f>
+        <v>Sampson</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>master!N27</f>
+        <v>Director, Quality</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f>master!O27</f>
+        <v>rsampson@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S27,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f>master!H27</f>
+        <v>rsampson</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>CONCATENATE(master!C28, " ",master!D28)</f>
+        <v>Sarah Malloy</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f>master!C28</f>
+        <v>Sarah</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f>master!D28</f>
+        <v>Malloy</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f>master!N28</f>
+        <v>Receiver</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>master!O28</f>
+        <v>smalloy@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S28,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f>master!H28</f>
+        <v>smalloy</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>CONCATENATE(master!C29, " ",master!D29)</f>
+        <v>Tom Swift</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f>master!C29</f>
+        <v>Tom</v>
+      </c>
+      <c r="C23" s="7" t="str">
+        <f>master!D29</f>
+        <v>Swift</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f>master!N29</f>
+        <v>Director, Engineering</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f>master!O29</f>
+        <v>tswift@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S29,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f>master!H29</f>
+        <v>tswift</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>CONCATENATE(master!C30, " ",master!D30)</f>
+        <v>Wakefield Damon</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f>master!C30</f>
+        <v>Wakefield</v>
+      </c>
+      <c r="C24" s="7" t="str">
+        <f>master!D30</f>
+        <v>Damon</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f>master!N30</f>
+        <v>Technical Writer</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f>master!O30</f>
+        <v>wdamon@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S30,",ou=People,dc=root,dc=org")</f>
+        <v>cn=John Sharp,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f>master!H30</f>
+        <v>wdamon</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>CONCATENATE(master!C31, " ",master!D31)</f>
+        <v>William Crawford</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f>master!C31</f>
+        <v>William</v>
+      </c>
+      <c r="C25" s="7" t="str">
+        <f>master!D31</f>
+        <v>Crawford</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f>master!N31</f>
+        <v>Director, Legal</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>master!O31</f>
+        <v>wcrawford@swiftconstructioncompany.net</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f>CONCATENATE("cn=",master!S31,",ou=People,dc=root,dc=org")</f>
+        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f>master!H31</f>
+        <v>wcrawford</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="35" customWidth="1"/>
-    <col min="5" max="24" width="6.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.69921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" style="35" customWidth="1"/>
+    <col min="5" max="24" width="6.69921875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="S1" s="30" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="U1" s="30" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="W1" s="30" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="X1" s="31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -5799,81 +6819,81 @@
         <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D2" s="33">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="X2" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D3" s="33">
         <v>2</v>
@@ -5886,7 +6906,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -5897,25 +6917,25 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W3" s="6"/>
       <c r="X3" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D4" s="33">
         <v>3</v>
@@ -5923,57 +6943,57 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="X4" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="D5" s="33">
         <v>4</v>
@@ -5985,19 +7005,19 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -6005,25 +7025,25 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W5" s="6"/>
       <c r="X5" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="D6" s="33">
         <v>5</v>
@@ -6036,41 +7056,41 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="X6" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D7" s="33">
         <v>6</v>
@@ -6080,58 +7100,58 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W7" s="6"/>
       <c r="X7" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="D8" s="33">
         <v>7</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -6139,7 +7159,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -6150,25 +7170,25 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D9" s="33">
         <v>8</v>
@@ -6181,13 +7201,13 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -6196,25 +7216,25 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D10" s="33">
         <v>9</v>
@@ -6227,7 +7247,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -6238,14 +7258,14 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="33" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6257,840 +7277,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="7" customWidth="1"/>
-    <col min="4" max="1024" width="8.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.69921875" style="7" customWidth="1"/>
+    <col min="4" max="1024" width="8.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="7" customWidth="1"/>
-    <col min="10" max="1024" width="8.625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="str">
-        <f>master!D10</f>
-        <v>Jenks</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <f>master!C10</f>
-        <v>Barcoe</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f>master!H10</f>
-        <v>bjenks</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <f>master!Y10</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f>master!O10</f>
-        <v>bjenks@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f>master!Q10</f>
-        <v>Engineering</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="str">
-        <f>master!D11</f>
-        <v>Swift</v>
-      </c>
-      <c r="B3" s="7" t="str">
-        <f>master!C11</f>
-        <v>Barton</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <f>master!H11</f>
-        <v>bswift</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <f>master!Y11</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <f>master!O11</f>
-        <v>bswift@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>master!Q11</f>
-        <v>Management</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="str">
-        <f>master!D12</f>
-        <v>Armstrong</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f>master!C12</f>
-        <v>Bub</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f>master!H12</f>
-        <v>barmstrong</v>
-      </c>
-      <c r="D4" s="7" t="str">
-        <f>master!Y12</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E4" s="7" t="str">
-        <f>master!O12</f>
-        <v>barmstrong@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>master!Q12</f>
-        <v>Engineering</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="str">
-        <f>master!D13</f>
-        <v>Mason</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f>master!C13</f>
-        <v>Frank</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>master!H13</f>
-        <v>fmason</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <f>master!Y13</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <f>master!O13</f>
-        <v>fmason@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>master!Q13</f>
-        <v>Engineering</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="str">
-        <f>master!D14</f>
-        <v>Jackson</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f>master!C14</f>
-        <v>Garret</v>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f>master!H14</f>
-        <v>gjackson</v>
-      </c>
-      <c r="D6" s="7" t="str">
-        <f>master!Y14</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E6" s="7" t="str">
-        <f>master!O14</f>
-        <v>gjackson@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>master!Q14</f>
-        <v>Manufacturing</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="str">
-        <f>master!D15</f>
-        <v>Baldwin</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f>master!C15</f>
-        <v>Hank</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>master!H15</f>
-        <v>hbaldwin</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>master!Y15</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <f>master!O15</f>
-        <v>hbaldwin@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>master!Q15</f>
-        <v>Manufacturing</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="str">
-        <f>master!D16</f>
-        <v>Randall</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f>master!C16</f>
-        <v>Helen</v>
-      </c>
-      <c r="C8" s="7" t="str">
-        <f>master!H16</f>
-        <v>hrandall</v>
-      </c>
-      <c r="D8" s="7" t="str">
-        <f>master!Y16</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E8" s="7" t="str">
-        <f>master!O16</f>
-        <v>hrandall@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>master!Q16</f>
-        <v>Finance</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="str">
-        <f>master!D17</f>
-        <v>Wood</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f>master!C17</f>
-        <v>Jacab</v>
-      </c>
-      <c r="C9" s="7" t="str">
-        <f>master!H17</f>
-        <v>jwood</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <f>master!Y17</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <f>master!O17</f>
-        <v>jwood@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>master!Q17</f>
-        <v>Sales &amp; Marketing</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="str">
-        <f>master!D18</f>
-        <v>Period</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f>master!C18</f>
-        <v>James</v>
-      </c>
-      <c r="C10" s="7" t="str">
-        <f>master!H18</f>
-        <v>jperiod</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f>master!Y18</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E10" s="7" t="str">
-        <f>master!O18</f>
-        <v>jperiod@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>master!Q18</f>
-        <v>Sales &amp; Marketing</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="str">
-        <f>master!D19</f>
-        <v>Haddon</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f>master!C19</f>
-        <v>Jennie</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f>master!H19</f>
-        <v>jhaddon</v>
-      </c>
-      <c r="D11" s="7" t="str">
-        <f>master!Y19</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E11" s="7" t="str">
-        <f>master!O19</f>
-        <v>jhaddon@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>master!Q19</f>
-        <v>Manufacturing</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="str">
-        <f>master!D20</f>
-        <v>Morse</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f>master!C20</f>
-        <v>Jennie</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>master!H20</f>
-        <v>jmorse</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>master!Y20</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E12" s="7" t="str">
-        <f>master!O20</f>
-        <v>jmorse@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>master!Q20</f>
-        <v>Finance</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="str">
-        <f>master!D21</f>
-        <v>Sharp</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f>master!C21</f>
-        <v>John</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>master!H21</f>
-        <v>jsharp</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f>master!Y21</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E13" s="7" t="str">
-        <f>master!O21</f>
-        <v>jsharp@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f>master!Q21</f>
-        <v>Product Management</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="str">
-        <f>master!D22</f>
-        <v>Baggert</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f>master!C22</f>
-        <v>Martha</v>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f>master!H22</f>
-        <v>mbaggert</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f>master!Y22</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E14" s="7" t="str">
-        <f>master!O22</f>
-        <v>mbaggert@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f>master!Q22</f>
-        <v>Human Resources</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="str">
-        <f>master!D23</f>
-        <v>Nestor</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f>master!C23</f>
-        <v>Mary</v>
-      </c>
-      <c r="C15" s="7" t="str">
-        <f>master!H23</f>
-        <v>mnestor</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f>master!Y23</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E15" s="7" t="str">
-        <f>master!O23</f>
-        <v>mnestor@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f>master!Q23</f>
-        <v>MIS/IT</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="str">
-        <f>master!D24</f>
-        <v>Blair</v>
-      </c>
-      <c r="B16" s="7" t="str">
-        <f>master!C24</f>
-        <v>Minnie</v>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f>master!H24</f>
-        <v>mblair</v>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f>master!Y24</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E16" s="7" t="str">
-        <f>master!O24</f>
-        <v>mblair@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F16" s="7" t="str">
-        <f>master!Q24</f>
-        <v>Engineering</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="str">
-        <f>master!D25</f>
-        <v>DeLazes</v>
-      </c>
-      <c r="B17" s="7" t="str">
-        <f>master!C25</f>
-        <v>Miquel</v>
-      </c>
-      <c r="C17" s="7" t="str">
-        <f>master!H25</f>
-        <v>mdelazes</v>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f>master!Y25</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E17" s="7" t="str">
-        <f>master!O25</f>
-        <v>mdelazes@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F17" s="7" t="str">
-        <f>master!Q25</f>
-        <v>Manufacturing</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="str">
-        <f>master!D26</f>
-        <v>Newton</v>
-      </c>
-      <c r="B18" s="7" t="str">
-        <f>master!C26</f>
-        <v>Ned</v>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f>master!H26</f>
-        <v>nnewton</v>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f>master!Y26</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E18" s="7" t="str">
-        <f>master!O26</f>
-        <v>nnewton@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f>master!Q26</f>
-        <v>Finance</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="str">
-        <f>master!D27</f>
-        <v>Sampson</v>
-      </c>
-      <c r="B19" s="7" t="str">
-        <f>master!C27</f>
-        <v>Rad</v>
-      </c>
-      <c r="C19" s="7" t="str">
-        <f>master!H27</f>
-        <v>rsampson</v>
-      </c>
-      <c r="D19" s="7" t="str">
-        <f>master!Y27</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E19" s="7" t="str">
-        <f>master!O27</f>
-        <v>rsampson@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f>master!Q27</f>
-        <v>Quality</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="str">
-        <f>master!D28</f>
-        <v>Malloy</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f>master!C28</f>
-        <v>Sarah</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>master!H28</f>
-        <v>smalloy</v>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f>master!Y28</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E20" s="7" t="str">
-        <f>master!O28</f>
-        <v>smalloy@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F20" s="7" t="str">
-        <f>master!Q28</f>
-        <v>Manufacturing</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="str">
-        <f>master!D29</f>
-        <v>Swift</v>
-      </c>
-      <c r="B21" s="7" t="str">
-        <f>master!C29</f>
-        <v>Tom</v>
-      </c>
-      <c r="C21" s="7" t="str">
-        <f>master!H29</f>
-        <v>tswift</v>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f>master!Y29</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E21" s="7" t="str">
-        <f>master!O29</f>
-        <v>tswift@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F21" s="7" t="str">
-        <f>master!Q29</f>
-        <v>Engineering</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
-        <f>master!D30</f>
-        <v>Damon</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <f>master!C30</f>
-        <v>Wakefield</v>
-      </c>
-      <c r="C22" s="7" t="str">
-        <f>master!H30</f>
-        <v>wdamon</v>
-      </c>
-      <c r="D22" s="7" t="str">
-        <f>master!Y30</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E22" s="7" t="str">
-        <f>master!O30</f>
-        <v>wdamon@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F22" s="7" t="str">
-        <f>master!Q30</f>
-        <v>Product Management</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="str">
-        <f>master!D31</f>
-        <v>Crawford</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <f>master!C31</f>
-        <v>William</v>
-      </c>
-      <c r="C23" s="7" t="str">
-        <f>master!H31</f>
-        <v>wcrawford</v>
-      </c>
-      <c r="D23" s="7" t="str">
-        <f>master!Y31</f>
-        <v>1-315-123-4567</v>
-      </c>
-      <c r="E23" s="7" t="str">
-        <f>master!O31</f>
-        <v>wcrawford@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F23" s="7" t="str">
-        <f>master!Q31</f>
-        <v>Legal</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -7101,1067 +7332,107 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="40.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="1024" width="8.625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="str">
-        <f>CONCATENATE(master!C8, " ",master!D8)</f>
-        <v>Admin User</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <f>master!C8</f>
-        <v>Admin</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f>master!D8</f>
-        <v>User</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f>master!O8</f>
-        <v>tswift@swiftconstructioncompany.net</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I2" s="7" t="str">
-        <f>master!H8</f>
-        <v>admin</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="str">
-        <f>CONCATENATE(master!C9, " ",master!D9)</f>
-        <v>Demo User</v>
-      </c>
-      <c r="B3" s="7" t="str">
-        <f>master!C9</f>
-        <v>Demo</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <f>master!D9</f>
-        <v>User</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <f>master!O9</f>
-        <v>tswift@swiftconstructioncompany.net</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" s="7" t="str">
-        <f>master!H9</f>
-        <v>demo</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="str">
-        <f>CONCATENATE(master!C10, " ",master!D10)</f>
-        <v>Barcoe Jenks</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f>master!C10</f>
-        <v>Barcoe</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f>master!D10</f>
-        <v>Jenks</v>
-      </c>
-      <c r="D4" s="7" t="str">
-        <f>master!N10</f>
-        <v>Electronics Engineer</v>
-      </c>
-      <c r="E4" s="7" t="str">
-        <f>master!O10</f>
-        <v>bjenks@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S10,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f>master!H10</f>
-        <v>bjenks</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="str">
-        <f>CONCATENATE(master!C11, " ",master!D11)</f>
-        <v>Barton Swift</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f>master!C11</f>
-        <v>Barton</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>master!D11</f>
-        <v>Swift</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <f>master!N11</f>
-        <v>President</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <f>master!O11</f>
-        <v>bswift@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S11,",ou=People,dc=root,dc=org")</f>
-        <v>cn=,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f>master!H11</f>
-        <v>bswift</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="str">
-        <f>CONCATENATE(master!C12, " ",master!D12)</f>
-        <v>Bub Armstrong</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f>master!C12</f>
-        <v>Bub</v>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f>master!D12</f>
-        <v>Armstrong</v>
-      </c>
-      <c r="D6" s="7" t="str">
-        <f>master!N12</f>
-        <v>Mechanical Engineer</v>
-      </c>
-      <c r="E6" s="7" t="str">
-        <f>master!O12</f>
-        <v>barmstrong@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S12,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f>master!H12</f>
-        <v>barmstrong</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="str">
-        <f>CONCATENATE(master!C13, " ",master!D13)</f>
-        <v>Frank Mason</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f>master!C13</f>
-        <v>Frank</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>master!D13</f>
-        <v>Mason</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>master!N13</f>
-        <v>Engineering Project Coordinator</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <f>master!O13</f>
-        <v>fmason@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S13,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f>master!H13</f>
-        <v>fmason</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="str">
-        <f>CONCATENATE(master!C14, " ",master!D14)</f>
-        <v>Garret Jackson</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f>master!C14</f>
-        <v>Garret</v>
-      </c>
-      <c r="C8" s="7" t="str">
-        <f>master!D14</f>
-        <v>Jackson</v>
-      </c>
-      <c r="D8" s="7" t="str">
-        <f>master!N14</f>
-        <v>Production Planner</v>
-      </c>
-      <c r="E8" s="7" t="str">
-        <f>master!O14</f>
-        <v>gjackson@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S14,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f>master!H14</f>
-        <v>gjackson</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="str">
-        <f>CONCATENATE(master!C15, " ",master!D15)</f>
-        <v>Hank Baldwin</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f>master!C15</f>
-        <v>Hank</v>
-      </c>
-      <c r="C9" s="7" t="str">
-        <f>master!D15</f>
-        <v>Baldwin</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <f>master!N15</f>
-        <v>Lead Hand</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <f>master!O15</f>
-        <v>hbaldwin@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S15,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f>master!H15</f>
-        <v>hbaldwin</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="str">
-        <f>CONCATENATE(master!C16, " ",master!D16)</f>
-        <v>Helen Randall</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f>master!C16</f>
-        <v>Helen</v>
-      </c>
-      <c r="C10" s="7" t="str">
-        <f>master!D16</f>
-        <v>Randall</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f>master!N16</f>
-        <v>AP Clerk</v>
-      </c>
-      <c r="E10" s="7" t="str">
-        <f>master!O16</f>
-        <v>hrandall@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S16,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f>master!H16</f>
-        <v>hrandall</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="str">
-        <f>CONCATENATE(master!C17, " ",master!D17)</f>
-        <v>Jacab Wood</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f>master!C17</f>
-        <v>Jacab</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f>master!D17</f>
-        <v>Wood</v>
-      </c>
-      <c r="D11" s="7" t="str">
-        <f>master!N17</f>
-        <v>Sales Agent</v>
-      </c>
-      <c r="E11" s="7" t="str">
-        <f>master!O17</f>
-        <v>jwood@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S17,",ou=People,dc=root,dc=org")</f>
-        <v>cn=James Period,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f>master!H17</f>
-        <v>jwood</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="str">
-        <f>CONCATENATE(master!C18, " ",master!D18)</f>
-        <v>James Period</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f>master!C18</f>
-        <v>James</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>master!D18</f>
-        <v>Period</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>master!N18</f>
-        <v>Director, Sales &amp; Marketing</v>
-      </c>
-      <c r="E12" s="7" t="str">
-        <f>master!O18</f>
-        <v>jperiod@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S18,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f>master!H18</f>
-        <v>jperiod</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="str">
-        <f>CONCATENATE(master!C19, " ",master!D19)</f>
-        <v>Jennie Haddon</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f>master!C19</f>
-        <v>Jennie</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>master!D19</f>
-        <v>Haddon</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f>master!N19</f>
-        <v>Buyer</v>
-      </c>
-      <c r="E13" s="7" t="str">
-        <f>master!O19</f>
-        <v>jhaddon@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S19,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f>master!H19</f>
-        <v>jhaddon</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="str">
-        <f>CONCATENATE(master!C20, " ",master!D20)</f>
-        <v>Jennie Morse</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f>master!C20</f>
-        <v>Jennie</v>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f>master!D20</f>
-        <v>Morse</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f>master!N20</f>
-        <v>AR Clerk</v>
-      </c>
-      <c r="E14" s="7" t="str">
-        <f>master!O20</f>
-        <v>jmorse@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S20,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f>master!H20</f>
-        <v>jmorse</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="str">
-        <f>CONCATENATE(master!C21, " ",master!D21)</f>
-        <v>John Sharp</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f>master!C21</f>
-        <v>John</v>
-      </c>
-      <c r="C15" s="7" t="str">
-        <f>master!D21</f>
-        <v>Sharp</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f>master!N21</f>
-        <v>Director, Prod Mgmt</v>
-      </c>
-      <c r="E15" s="7" t="str">
-        <f>master!O21</f>
-        <v>jsharp@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S21,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f>master!H21</f>
-        <v>jsharp</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="str">
-        <f>CONCATENATE(master!C22, " ",master!D22)</f>
-        <v>Martha Baggert</v>
-      </c>
-      <c r="B16" s="7" t="str">
-        <f>master!C22</f>
-        <v>Martha</v>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f>master!D22</f>
-        <v>Baggert</v>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f>master!N22</f>
-        <v>Director, Human Resources</v>
-      </c>
-      <c r="E16" s="7" t="str">
-        <f>master!O22</f>
-        <v>mbaggert@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F16" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S22,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I16" s="7" t="str">
-        <f>master!H22</f>
-        <v>mbaggert</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="str">
-        <f>CONCATENATE(master!C23, " ",master!D23)</f>
-        <v>Mary Nestor</v>
-      </c>
-      <c r="B17" s="7" t="str">
-        <f>master!C23</f>
-        <v>Mary</v>
-      </c>
-      <c r="C17" s="7" t="str">
-        <f>master!D23</f>
-        <v>Nestor</v>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f>master!N23</f>
-        <v>Director, MIS-IT</v>
-      </c>
-      <c r="E17" s="7" t="str">
-        <f>master!O23</f>
-        <v>mnestor@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F17" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S23,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f>master!H23</f>
-        <v>mnestor</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="str">
-        <f>CONCATENATE(master!C24, " ",master!D24)</f>
-        <v>Minnie Blair</v>
-      </c>
-      <c r="B18" s="7" t="str">
-        <f>master!C24</f>
-        <v>Minnie</v>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f>master!D24</f>
-        <v>Blair</v>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f>master!N24</f>
-        <v>Software Engineer</v>
-      </c>
-      <c r="E18" s="7" t="str">
-        <f>master!O24</f>
-        <v>mblair@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S24,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f>master!H24</f>
-        <v>mblair</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="str">
-        <f>CONCATENATE(master!C25, " ",master!D25)</f>
-        <v>Miquel DeLazes</v>
-      </c>
-      <c r="B19" s="7" t="str">
-        <f>master!C25</f>
-        <v>Miquel</v>
-      </c>
-      <c r="C19" s="7" t="str">
-        <f>master!D25</f>
-        <v>DeLazes</v>
-      </c>
-      <c r="D19" s="7" t="str">
-        <f>master!N25</f>
-        <v>Director, Manufacturing</v>
-      </c>
-      <c r="E19" s="7" t="str">
-        <f>master!O25</f>
-        <v>mdelazes@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S25,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I19" s="7" t="str">
-        <f>master!H25</f>
-        <v>mdelazes</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="str">
-        <f>CONCATENATE(master!C26, " ",master!D26)</f>
-        <v>Ned Newton</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f>master!C26</f>
-        <v>Ned</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>master!D26</f>
-        <v>Newton</v>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f>master!N26</f>
-        <v>Chief Financial Officer</v>
-      </c>
-      <c r="E20" s="7" t="str">
-        <f>master!O26</f>
-        <v>nnewton@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F20" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S26,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f>master!H26</f>
-        <v>nnewton</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="str">
-        <f>CONCATENATE(master!C27, " ",master!D27)</f>
-        <v>Rad Sampson</v>
-      </c>
-      <c r="B21" s="7" t="str">
-        <f>master!C27</f>
-        <v>Rad</v>
-      </c>
-      <c r="C21" s="7" t="str">
-        <f>master!D27</f>
-        <v>Sampson</v>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f>master!N27</f>
-        <v>Director, Quality</v>
-      </c>
-      <c r="E21" s="7" t="str">
-        <f>master!O27</f>
-        <v>rsampson@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F21" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S27,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f>master!H27</f>
-        <v>rsampson</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
-        <f>CONCATENATE(master!C28, " ",master!D28)</f>
-        <v>Sarah Malloy</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <f>master!C28</f>
-        <v>Sarah</v>
-      </c>
-      <c r="C22" s="7" t="str">
-        <f>master!D28</f>
-        <v>Malloy</v>
-      </c>
-      <c r="D22" s="7" t="str">
-        <f>master!N28</f>
-        <v>Receiver</v>
-      </c>
-      <c r="E22" s="7" t="str">
-        <f>master!O28</f>
-        <v>smalloy@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F22" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S28,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f>master!H28</f>
-        <v>smalloy</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="str">
-        <f>CONCATENATE(master!C29, " ",master!D29)</f>
-        <v>Tom Swift</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <f>master!C29</f>
-        <v>Tom</v>
-      </c>
-      <c r="C23" s="7" t="str">
-        <f>master!D29</f>
-        <v>Swift</v>
-      </c>
-      <c r="D23" s="7" t="str">
-        <f>master!N29</f>
-        <v>Director, Engineering</v>
-      </c>
-      <c r="E23" s="7" t="str">
-        <f>master!O29</f>
-        <v>tswift@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F23" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S29,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f>master!H29</f>
-        <v>tswift</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="str">
-        <f>CONCATENATE(master!C30, " ",master!D30)</f>
-        <v>Wakefield Damon</v>
-      </c>
-      <c r="B24" s="7" t="str">
-        <f>master!C30</f>
-        <v>Wakefield</v>
-      </c>
-      <c r="C24" s="7" t="str">
-        <f>master!D30</f>
-        <v>Damon</v>
-      </c>
-      <c r="D24" s="7" t="str">
-        <f>master!N30</f>
-        <v>Technical Writer</v>
-      </c>
-      <c r="E24" s="7" t="str">
-        <f>master!O30</f>
-        <v>wdamon@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F24" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S30,",ou=People,dc=root,dc=org")</f>
-        <v>cn=John Sharp,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I24" s="7" t="str">
-        <f>master!H30</f>
-        <v>wdamon</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="str">
-        <f>CONCATENATE(master!C31, " ",master!D31)</f>
-        <v>William Crawford</v>
-      </c>
-      <c r="B25" s="7" t="str">
-        <f>master!C31</f>
-        <v>William</v>
-      </c>
-      <c r="C25" s="7" t="str">
-        <f>master!D31</f>
-        <v>Crawford</v>
-      </c>
-      <c r="D25" s="7" t="str">
-        <f>master!N31</f>
-        <v>Director, Legal</v>
-      </c>
-      <c r="E25" s="7" t="str">
-        <f>master!O31</f>
-        <v>wcrawford@swiftconstructioncompany.net</v>
-      </c>
-      <c r="F25" s="7" t="str">
-        <f>CONCATENATE("cn=",master!S31,",ou=People,dc=root,dc=org")</f>
-        <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I25" s="7" t="str">
-        <f>master!H31</f>
-        <v>wcrawford</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ13"/>
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="8.625" style="7" customWidth="1"/>
+    <col min="1" max="1024" width="8.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="B12" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="B15" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="B16" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>3</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>332</v>
+      <c r="B17" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/protected/data/master/user.xlsx
+++ b/protected/data/master/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="552" windowWidth="18876" windowHeight="8676"/>
+    <workbookView xWindow="228" yWindow="552" windowWidth="18876" windowHeight="8676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,29 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is referenced in the user profile lookup on the master worksheet</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="317">
   <si>
@@ -856,9 +879,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Create User, Edit Perm Group</t>
-  </si>
-  <si>
     <t>ECO Admin and Item Status</t>
   </si>
   <si>
@@ -871,34 +891,7 @@
     <t>Item User 6-10</t>
   </si>
   <si>
-    <t>Costs +  Update Costs when making Purch List</t>
-  </si>
-  <si>
-    <t>Sources (vendor, mfr, mfr pn, line card)</t>
-  </si>
-  <si>
-    <t>Cust &amp; Jobs (View)</t>
-  </si>
-  <si>
-    <t>Cust (Edit)</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>RFQ</t>
-  </si>
-  <si>
     <t>Overkit Entries</t>
-  </si>
-  <si>
-    <t>Min Stk Entries</t>
-  </si>
-  <si>
-    <t>Stock Qtys</t>
   </si>
   <si>
     <t>Units of Measure</t>
@@ -1056,6 +1049,36 @@
   </si>
   <si>
     <t>Export in CSV format to user.csv (note passwords are in plain text, use appropriate security measures)</t>
+  </si>
+  <si>
+    <t>Costs +  Update Costs when making Purch Lists</t>
+  </si>
+  <si>
+    <t>Sources: Vendors, Mfrs, Mfr P/Ns, Linecard</t>
+  </si>
+  <si>
+    <t>Customers/Jobs (View)</t>
+  </si>
+  <si>
+    <t>Customsers (Edit)</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Purchase Orders</t>
+  </si>
+  <si>
+    <t>Requests for Quotation</t>
+  </si>
+  <si>
+    <t>Minimum Stock Entries</t>
+  </si>
+  <si>
+    <t>Stock Quantities</t>
+  </si>
+  <si>
+    <t>Permission Groups, Group Members, ECO Departents, Users/Passwords.</t>
   </si>
 </sst>
 </file>
@@ -1401,15 +1424,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1446,6 +1460,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1760,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1871,7 +1894,7 @@
       <c r="AB6" s="15"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="39"/>
+      <c r="AE6" s="36"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -1883,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>11</v>
@@ -1960,7 +1983,7 @@
       <c r="AD7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AE7" s="40" t="s">
+      <c r="AE7" s="37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1979,7 +2002,7 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17" t="s">
@@ -2000,10 +2023,10 @@
         <v>49</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -2020,7 +2043,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="39"/>
+      <c r="AE8" s="36"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
@@ -2058,10 +2081,10 @@
         <v>49</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -2078,7 +2101,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="25"/>
       <c r="AD9" s="25"/>
-      <c r="AE9" s="41"/>
+      <c r="AE9" s="38"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -2097,7 +2120,7 @@
       <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="43">
         <v>21551</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -2171,7 +2194,7 @@
       <c r="AD10" s="5">
         <v>13054</v>
       </c>
-      <c r="AE10" s="41" t="s">
+      <c r="AE10" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2192,7 +2215,7 @@
       <c r="F11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="43">
         <v>14277</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -2263,7 +2286,7 @@
       <c r="AD11" s="5">
         <v>13054</v>
       </c>
-      <c r="AE11" s="41" t="s">
+      <c r="AE11" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2284,7 +2307,7 @@
       <c r="F12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="43">
         <v>21610</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -2358,7 +2381,7 @@
       <c r="AD12" s="5">
         <v>13054</v>
       </c>
-      <c r="AE12" s="41" t="s">
+      <c r="AE12" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2379,7 +2402,7 @@
       <c r="F13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="43">
         <v>21641</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -2453,7 +2476,7 @@
       <c r="AD13" s="5">
         <v>13054</v>
       </c>
-      <c r="AE13" s="41" t="s">
+      <c r="AE13" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2474,7 +2497,7 @@
       <c r="F14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="43">
         <v>21671</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -2548,7 +2571,7 @@
       <c r="AD14" s="5">
         <v>13054</v>
       </c>
-      <c r="AE14" s="41" t="s">
+      <c r="AE14" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2569,7 +2592,7 @@
       <c r="F15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="43">
         <v>21702</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -2643,7 +2666,7 @@
       <c r="AD15" s="5">
         <v>13054</v>
       </c>
-      <c r="AE15" s="41" t="s">
+      <c r="AE15" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2664,7 +2687,7 @@
       <c r="F16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="43">
         <v>21732</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -2738,7 +2761,7 @@
       <c r="AD16" s="5">
         <v>13054</v>
       </c>
-      <c r="AE16" s="41" t="s">
+      <c r="AE16" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2759,7 +2782,7 @@
       <c r="F17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="43">
         <v>21763</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -2833,7 +2856,7 @@
       <c r="AD17" s="5">
         <v>13054</v>
       </c>
-      <c r="AE17" s="41" t="s">
+      <c r="AE17" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2854,7 +2877,7 @@
       <c r="F18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="43">
         <v>21794</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -2928,7 +2951,7 @@
       <c r="AD18" s="5">
         <v>13054</v>
       </c>
-      <c r="AE18" s="41" t="s">
+      <c r="AE18" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2949,7 +2972,7 @@
       <c r="F19" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="43">
         <v>21824</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3023,7 +3046,7 @@
       <c r="AD19" s="5">
         <v>13054</v>
       </c>
-      <c r="AE19" s="41" t="s">
+      <c r="AE19" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3044,7 +3067,7 @@
       <c r="F20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="43">
         <v>21855</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3118,7 +3141,7 @@
       <c r="AD20" s="5">
         <v>13054</v>
       </c>
-      <c r="AE20" s="41" t="s">
+      <c r="AE20" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3139,7 +3162,7 @@
       <c r="F21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="43">
         <v>21885</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3213,7 +3236,7 @@
       <c r="AD21" s="5">
         <v>13054</v>
       </c>
-      <c r="AE21" s="41" t="s">
+      <c r="AE21" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3234,7 +3257,7 @@
       <c r="F22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="43">
         <v>12785</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3308,7 +3331,7 @@
       <c r="AD22" s="5">
         <v>13054</v>
       </c>
-      <c r="AE22" s="41" t="s">
+      <c r="AE22" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3329,7 +3352,7 @@
       <c r="F23" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="43">
         <v>23815</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3403,7 +3426,7 @@
       <c r="AD23" s="5">
         <v>13054</v>
       </c>
-      <c r="AE23" s="41" t="s">
+      <c r="AE23" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3424,7 +3447,7 @@
       <c r="F24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="43">
         <v>21976</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -3498,7 +3521,7 @@
       <c r="AD24" s="5">
         <v>13054</v>
       </c>
-      <c r="AE24" s="41" t="s">
+      <c r="AE24" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3519,7 +3542,7 @@
       <c r="F25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="43">
         <v>22007</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -3593,7 +3616,7 @@
       <c r="AD25" s="5">
         <v>13054</v>
       </c>
-      <c r="AE25" s="41" t="s">
+      <c r="AE25" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3614,7 +3637,7 @@
       <c r="F26" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="43">
         <v>22037</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -3688,7 +3711,7 @@
       <c r="AD26" s="5">
         <v>13054</v>
       </c>
-      <c r="AE26" s="41" t="s">
+      <c r="AE26" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3709,7 +3732,7 @@
       <c r="F27" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="43">
         <v>13667</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -3783,7 +3806,7 @@
       <c r="AD27" s="5">
         <v>13054</v>
       </c>
-      <c r="AE27" s="41" t="s">
+      <c r="AE27" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3804,7 +3827,7 @@
       <c r="F28" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="43">
         <v>22098</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -3878,7 +3901,7 @@
       <c r="AD28" s="5">
         <v>13054</v>
       </c>
-      <c r="AE28" s="41" t="s">
+      <c r="AE28" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3899,7 +3922,7 @@
       <c r="F29" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="43">
         <v>21879</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -3973,7 +3996,7 @@
       <c r="AD29" s="5">
         <v>13054</v>
       </c>
-      <c r="AE29" s="41" t="s">
+      <c r="AE29" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3994,7 +4017,7 @@
       <c r="F30" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="43">
         <v>22160</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -4068,7 +4091,7 @@
       <c r="AD30" s="5">
         <v>13054</v>
       </c>
-      <c r="AE30" s="41" t="s">
+      <c r="AE30" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4089,7 +4112,7 @@
       <c r="F31" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="43">
         <v>22190</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -4163,7 +4186,7 @@
       <c r="AD31" s="25">
         <v>13054</v>
       </c>
-      <c r="AE31" s="41" t="s">
+      <c r="AE31" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5290,7 +5313,7 @@
       <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="47" t="str">
+      <c r="K2" s="44" t="str">
         <f>CONCATENATE(A2,":",B2,":",C2,":",D2,":",E2,":",F2,":",G2,":",H2,":",I2,":",J2)</f>
         <v>admin::::::Admin User, Maestro Administrator::tcsh:admin</v>
       </c>
@@ -5309,7 +5332,7 @@
       <c r="J3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="47" t="str">
+      <c r="K3" s="44" t="str">
         <f t="shared" ref="K3:K25" si="0">CONCATENATE(A3,":",B3,":",C3,":",D3,":",E3,":",F3,":",G3,":",H3,":",I3,":",J3)</f>
         <v>demo::::::Demo User, Maestro Demonstrator::tcsh:demo</v>
       </c>
@@ -5328,7 +5351,7 @@
       <c r="J4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="47" t="str">
+      <c r="K4" s="44" t="str">
         <f t="shared" si="0"/>
         <v>bjenks::::::Barcoe Jenks, Electronics Engineer::tcsh:appleton</v>
       </c>
@@ -5347,7 +5370,7 @@
       <c r="J5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="47" t="str">
+      <c r="K5" s="44" t="str">
         <f t="shared" si="0"/>
         <v>bswift::::::Barton Swift, President::tcsh:appleton</v>
       </c>
@@ -5366,7 +5389,7 @@
       <c r="J6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="47" t="str">
+      <c r="K6" s="44" t="str">
         <f t="shared" si="0"/>
         <v>barmstrong::::::Bub Armstrong, Mechanical Engineer::tcsh:appleton</v>
       </c>
@@ -5385,7 +5408,7 @@
       <c r="J7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="47" t="str">
+      <c r="K7" s="44" t="str">
         <f t="shared" si="0"/>
         <v>fmason::::::Frank Mason, Engineering Project Coordinator::tcsh:appleton</v>
       </c>
@@ -5404,7 +5427,7 @@
       <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="44" t="str">
         <f t="shared" si="0"/>
         <v>gjackson::::::Garret Jackson, Production Planner::tcsh:appleton</v>
       </c>
@@ -5423,7 +5446,7 @@
       <c r="J9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="47" t="str">
+      <c r="K9" s="44" t="str">
         <f t="shared" si="0"/>
         <v>hbaldwin::::::Hank Baldwin, Lead Hand::tcsh:appleton</v>
       </c>
@@ -5442,7 +5465,7 @@
       <c r="J10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="47" t="str">
+      <c r="K10" s="44" t="str">
         <f t="shared" si="0"/>
         <v>hrandall::::::Helen Randall, AP Clerk::tcsh:appleton</v>
       </c>
@@ -5461,7 +5484,7 @@
       <c r="J11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="47" t="str">
+      <c r="K11" s="44" t="str">
         <f t="shared" si="0"/>
         <v>jwood::::::Jacab Wood, Sales Agent::tcsh:appleton</v>
       </c>
@@ -5480,7 +5503,7 @@
       <c r="J12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="47" t="str">
+      <c r="K12" s="44" t="str">
         <f t="shared" si="0"/>
         <v>jperiod::::::James Period, Director, Sales &amp; Marketing::tcsh:appleton</v>
       </c>
@@ -5499,7 +5522,7 @@
       <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="47" t="str">
+      <c r="K13" s="44" t="str">
         <f t="shared" si="0"/>
         <v>jhaddon::::::Jennie Haddon, Buyer::tcsh:appleton</v>
       </c>
@@ -5518,7 +5541,7 @@
       <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="47" t="str">
+      <c r="K14" s="44" t="str">
         <f t="shared" si="0"/>
         <v>jmorse::::::Jennie Morse, AR Clerk::tcsh:appleton</v>
       </c>
@@ -5537,7 +5560,7 @@
       <c r="J15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="47" t="str">
+      <c r="K15" s="44" t="str">
         <f t="shared" si="0"/>
         <v>jsharp::::::John Sharp, Director, Prod Mgmt::tcsh:appleton</v>
       </c>
@@ -5556,7 +5579,7 @@
       <c r="J16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="47" t="str">
+      <c r="K16" s="44" t="str">
         <f t="shared" si="0"/>
         <v>mbaggert::::::Martha Baggert, Director, Human Resources::tcsh:appleton</v>
       </c>
@@ -5575,7 +5598,7 @@
       <c r="J17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="47" t="str">
+      <c r="K17" s="44" t="str">
         <f t="shared" si="0"/>
         <v>mnestor::::::Mary Nestor, Director, MIS-IT::tcsh:appleton</v>
       </c>
@@ -5594,7 +5617,7 @@
       <c r="J18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="47" t="str">
+      <c r="K18" s="44" t="str">
         <f t="shared" si="0"/>
         <v>mblair::::::Minnie Blair, Software Engineer::tcsh:appleton</v>
       </c>
@@ -5613,7 +5636,7 @@
       <c r="J19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="47" t="str">
+      <c r="K19" s="44" t="str">
         <f t="shared" si="0"/>
         <v>mdelazes::::::Miquel DeLazes, Director, Manufacturing::tcsh:appleton</v>
       </c>
@@ -5632,7 +5655,7 @@
       <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="47" t="str">
+      <c r="K20" s="44" t="str">
         <f t="shared" si="0"/>
         <v>nnewton::::::Ned Newton, Chief Financial Officer::tcsh:appleton</v>
       </c>
@@ -5651,7 +5674,7 @@
       <c r="J21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="47" t="str">
+      <c r="K21" s="44" t="str">
         <f t="shared" si="0"/>
         <v>rsampson::::::Rad Sampson, Director, Quality::tcsh:appleton</v>
       </c>
@@ -5670,7 +5693,7 @@
       <c r="J22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="47" t="str">
+      <c r="K22" s="44" t="str">
         <f t="shared" si="0"/>
         <v>smalloy::::::Sarah Malloy, Receiver::tcsh:appleton</v>
       </c>
@@ -5689,7 +5712,7 @@
       <c r="J23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="47" t="str">
+      <c r="K23" s="44" t="str">
         <f t="shared" si="0"/>
         <v>tswift::::::Tom Swift, Director, Engineering::tcsh:appleton</v>
       </c>
@@ -5708,7 +5731,7 @@
       <c r="J24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="47" t="str">
+      <c r="K24" s="44" t="str">
         <f t="shared" si="0"/>
         <v>wdamon::::::Wakefield Damon, Technical Writer::tcsh:appleton</v>
       </c>
@@ -5727,7 +5750,7 @@
       <c r="J25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="47" t="str">
+      <c r="K25" s="44" t="str">
         <f t="shared" si="0"/>
         <v>wcrawford::::::William Crawford, Director, Legal::tcsh:appleton</v>
       </c>
@@ -5761,34 +5784,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="44" t="s">
-        <v>292</v>
+      <c r="J1" s="41" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5813,17 +5836,17 @@
         <v>admin@swiftconstructioncompany.net</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I2" s="7" t="str">
         <f>master!H8</f>
         <v>admin</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>296</v>
+      <c r="J2" s="42" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5848,17 +5871,17 @@
         <v>admin@swiftconstructioncompany.net</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I3" s="7" t="str">
         <f>master!H9</f>
         <v>demo</v>
       </c>
-      <c r="J3" s="42" t="s">
-        <v>297</v>
+      <c r="J3" s="39" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5887,16 +5910,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I4" s="7" t="str">
         <f>master!H10</f>
         <v>bjenks</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5922,16 +5945,16 @@
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I5" s="7" t="str">
         <f>master!H11</f>
         <v>bswift</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5961,16 +5984,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I6" s="7" t="str">
         <f>master!H12</f>
         <v>barmstrong</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6000,16 +6023,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I7" s="7" t="str">
         <f>master!H13</f>
         <v>fmason</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6039,16 +6062,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I8" s="7" t="str">
         <f>master!H14</f>
         <v>gjackson</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6078,16 +6101,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I9" s="7" t="str">
         <f>master!H15</f>
         <v>hbaldwin</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6117,16 +6140,16 @@
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I10" s="7" t="str">
         <f>master!H16</f>
         <v>hrandall</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6156,16 +6179,16 @@
         <v>cn=James Period,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I11" s="7" t="str">
         <f>master!H17</f>
         <v>jwood</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6195,16 +6218,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I12" s="7" t="str">
         <f>master!H18</f>
         <v>jperiod</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6234,16 +6257,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I13" s="7" t="str">
         <f>master!H19</f>
         <v>jhaddon</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6273,16 +6296,16 @@
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I14" s="7" t="str">
         <f>master!H20</f>
         <v>jmorse</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6312,16 +6335,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I15" s="7" t="str">
         <f>master!H21</f>
         <v>jsharp</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6351,16 +6374,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I16" s="7" t="str">
         <f>master!H22</f>
         <v>mbaggert</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6390,16 +6413,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I17" s="7" t="str">
         <f>master!H23</f>
         <v>mnestor</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6429,16 +6452,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I18" s="7" t="str">
         <f>master!H24</f>
         <v>mblair</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6468,16 +6491,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I19" s="7" t="str">
         <f>master!H25</f>
         <v>mdelazes</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6507,16 +6530,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I20" s="7" t="str">
         <f>master!H26</f>
         <v>nnewton</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6546,16 +6569,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I21" s="7" t="str">
         <f>master!H27</f>
         <v>rsampson</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6585,16 +6608,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I22" s="7" t="str">
         <f>master!H28</f>
         <v>smalloy</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6624,16 +6647,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I23" s="7" t="str">
         <f>master!H29</f>
         <v>tswift</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6663,16 +6686,16 @@
         <v>cn=John Sharp,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I24" s="7" t="str">
         <f>master!H30</f>
         <v>wdamon</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6702,16 +6725,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I25" s="7" t="str">
         <f>master!H31</f>
         <v>wcrawford</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="39" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6723,21 +6746,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.69921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" style="35" customWidth="1"/>
-    <col min="5" max="24" width="6.69921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="46.296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" style="32" customWidth="1"/>
+    <col min="5" max="24" width="5.69921875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="171" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -6750,152 +6776,152 @@
       <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q1" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="R1" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="T1" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="U1" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="V1" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="W1" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="X1" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="X1" s="31" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="33">
+      <c r="C2" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="30">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>274</v>
+        <v>264</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="33">
+      <c r="C3" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="30">
         <v>2</v>
       </c>
       <c r="E3" s="6"/>
@@ -6906,7 +6932,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -6917,85 +6943,85 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W3" s="6"/>
-      <c r="X3" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="X3" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="33">
+      <c r="C4" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="30">
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+        <v>264</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="C5" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="30">
         <v>4</v>
       </c>
       <c r="E5" s="6"/>
@@ -7005,19 +7031,19 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -7025,27 +7051,27 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W5" s="6"/>
-      <c r="X5" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="X5" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="C6" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="30">
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
@@ -7056,43 +7082,43 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="X6" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+        <v>264</v>
+      </c>
+      <c r="X6" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="30">
         <v>6</v>
       </c>
       <c r="E7" s="6"/>
@@ -7100,58 +7126,58 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W7" s="6"/>
-      <c r="X7" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="X7" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="C8" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="30">
         <v>7</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -7159,7 +7185,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -7170,27 +7196,27 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W8" s="6"/>
-      <c r="X8" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="X8" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="33">
+      <c r="C9" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="30">
         <v>8</v>
       </c>
       <c r="E9" s="6"/>
@@ -7201,13 +7227,13 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -7216,27 +7242,27 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W9" s="6"/>
-      <c r="X9" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="X9" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="33">
+      <c r="C10" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="30">
         <v>9</v>
       </c>
       <c r="E10" s="6"/>
@@ -7247,7 +7273,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -7258,22 +7284,24 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="W10" s="6"/>
-      <c r="X10" s="33" t="s">
-        <v>274</v>
+      <c r="X10" s="30" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B10">
     <sortCondition ref="B2:B10"/>
   </sortState>
-  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0" right="0" top="0.39410000000000001" bottom="0.39410000000000001" header="0" footer="0"/>
+  <pageSetup paperSize="5" scale="86" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7295,10 +7323,10 @@
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7307,10 +7335,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>302</v>
+        <v>273</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7318,10 +7346,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>303</v>
+        <v>274</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7342,23 +7370,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>298</v>
+      <c r="A1" s="35" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>314</v>
+      <c r="A5" s="35" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7366,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7374,12 +7402,12 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>304</v>
+      <c r="A9" s="35" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7387,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7395,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,12 +7431,12 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>305</v>
+      <c r="A14" s="35" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7416,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7424,7 +7452,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7432,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/protected/data/master/user.xlsx
+++ b/protected/data/master/user.xlsx
@@ -100,7 +100,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="322">
   <si>
     <t>Reference Parameters</t>
   </si>
@@ -909,13 +909,7 @@
     <t>Export</t>
   </si>
   <si>
-    <t>Create/Read/Update/Delete access to all data</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Create/Read/Update access to all data</t>
   </si>
   <si>
     <t>Specifies parts (and BOMs, including overkit qty if known at
@@ -1078,7 +1072,28 @@
     <t>Stock Quantities</t>
   </si>
   <si>
-    <t>Permission Groups, Group Members, ECO Departents, Users/Passwords.</t>
+    <t>Permission Groups, Group Members, ECO Departments, Users/Passwords</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Parts (Parts&amp;Vendors)</t>
+  </si>
+  <si>
+    <t>Project Owner</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>Project Reader</t>
+  </si>
+  <si>
+    <t>Create/Read/Update/Delete (all data)</t>
+  </si>
+  <si>
+    <t>Create/Read/Update/NO-DELETE (all data)</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1349,6 +1364,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1368,7 +1561,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1417,19 +1610,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1460,13 +1640,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1894,7 +2118,7 @@
       <c r="AB6" s="15"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="36"/>
+      <c r="AE6" s="31"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -1906,10 +2130,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>11</v>
@@ -1983,7 +2207,7 @@
       <c r="AD7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AE7" s="37" t="s">
+      <c r="AE7" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2002,7 +2226,7 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17" t="s">
@@ -2013,7 +2237,7 @@
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="16">
-        <f>VLOOKUP(L8,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L8,user_profile!$B$3:$D$11,3,)</f>
         <v>1</v>
       </c>
       <c r="L8" s="18" t="s">
@@ -2023,10 +2247,10 @@
         <v>49</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -2043,7 +2267,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="36"/>
+      <c r="AE8" s="31"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
@@ -2071,7 +2295,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="25">
-        <f>VLOOKUP(L9,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L9,user_profile!$B$3:$D$11,3,)</f>
         <v>2</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -2081,10 +2305,10 @@
         <v>49</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -2101,7 +2325,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="25"/>
       <c r="AD9" s="25"/>
-      <c r="AE9" s="38"/>
+      <c r="AE9" s="33"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -2120,7 +2344,7 @@
       <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <v>21551</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -2133,7 +2357,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="25">
-        <f>VLOOKUP(L10,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L10,user_profile!$B$3:$D$11,3,)</f>
         <v>3</v>
       </c>
       <c r="L10" s="10" t="s">
@@ -2194,7 +2418,7 @@
       <c r="AD10" s="5">
         <v>13054</v>
       </c>
-      <c r="AE10" s="38" t="s">
+      <c r="AE10" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2215,7 +2439,7 @@
       <c r="F11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="38">
         <v>14277</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -2228,7 +2452,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="25">
-        <f>VLOOKUP(L11,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L11,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L11" s="10" t="s">
@@ -2286,7 +2510,7 @@
       <c r="AD11" s="5">
         <v>13054</v>
       </c>
-      <c r="AE11" s="38" t="s">
+      <c r="AE11" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2307,7 +2531,7 @@
       <c r="F12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="38">
         <v>21610</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -2320,7 +2544,7 @@
         <v>47</v>
       </c>
       <c r="K12" s="25">
-        <f>VLOOKUP(L12,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L12,user_profile!$B$3:$D$11,3,)</f>
         <v>3</v>
       </c>
       <c r="L12" s="10" t="s">
@@ -2381,7 +2605,7 @@
       <c r="AD12" s="5">
         <v>13054</v>
       </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AE12" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2402,7 +2626,7 @@
       <c r="F13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="38">
         <v>21641</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -2415,7 +2639,7 @@
         <v>47</v>
       </c>
       <c r="K13" s="25">
-        <f>VLOOKUP(L13,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L13,user_profile!$B$3:$D$11,3,)</f>
         <v>3</v>
       </c>
       <c r="L13" s="10" t="s">
@@ -2476,7 +2700,7 @@
       <c r="AD13" s="5">
         <v>13054</v>
       </c>
-      <c r="AE13" s="38" t="s">
+      <c r="AE13" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2497,7 +2721,7 @@
       <c r="F14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="38">
         <v>21671</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -2510,7 +2734,7 @@
         <v>47</v>
       </c>
       <c r="K14" s="25">
-        <f>VLOOKUP(L14,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L14,user_profile!$B$3:$D$11,3,)</f>
         <v>5</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -2571,7 +2795,7 @@
       <c r="AD14" s="5">
         <v>13054</v>
       </c>
-      <c r="AE14" s="38" t="s">
+      <c r="AE14" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2592,7 +2816,7 @@
       <c r="F15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="38">
         <v>21702</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -2605,7 +2829,7 @@
         <v>47</v>
       </c>
       <c r="K15" s="25">
-        <f>VLOOKUP(L15,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L15,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -2666,7 +2890,7 @@
       <c r="AD15" s="5">
         <v>13054</v>
       </c>
-      <c r="AE15" s="38" t="s">
+      <c r="AE15" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2687,7 +2911,7 @@
       <c r="F16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="38">
         <v>21732</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -2700,7 +2924,7 @@
         <v>47</v>
       </c>
       <c r="K16" s="25">
-        <f>VLOOKUP(L16,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L16,user_profile!$B$3:$D$11,3,)</f>
         <v>4</v>
       </c>
       <c r="L16" s="10" t="s">
@@ -2761,7 +2985,7 @@
       <c r="AD16" s="5">
         <v>13054</v>
       </c>
-      <c r="AE16" s="38" t="s">
+      <c r="AE16" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2782,7 +3006,7 @@
       <c r="F17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="38">
         <v>21763</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -2795,7 +3019,7 @@
         <v>47</v>
       </c>
       <c r="K17" s="25">
-        <f>VLOOKUP(L17,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L17,user_profile!$B$3:$D$11,3,)</f>
         <v>8</v>
       </c>
       <c r="L17" s="10" t="s">
@@ -2856,7 +3080,7 @@
       <c r="AD17" s="5">
         <v>13054</v>
       </c>
-      <c r="AE17" s="38" t="s">
+      <c r="AE17" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2877,7 +3101,7 @@
       <c r="F18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="38">
         <v>21794</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -2890,7 +3114,7 @@
         <v>47</v>
       </c>
       <c r="K18" s="25">
-        <f>VLOOKUP(L18,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L18,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L18" s="10" t="s">
@@ -2951,7 +3175,7 @@
       <c r="AD18" s="5">
         <v>13054</v>
       </c>
-      <c r="AE18" s="38" t="s">
+      <c r="AE18" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2972,7 +3196,7 @@
       <c r="F19" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="38">
         <v>21824</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -2985,7 +3209,7 @@
         <v>47</v>
       </c>
       <c r="K19" s="25">
-        <f>VLOOKUP(L19,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L19,user_profile!$B$3:$D$11,3,)</f>
         <v>6</v>
       </c>
       <c r="L19" s="10" t="s">
@@ -3046,7 +3270,7 @@
       <c r="AD19" s="5">
         <v>13054</v>
       </c>
-      <c r="AE19" s="38" t="s">
+      <c r="AE19" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3067,7 +3291,7 @@
       <c r="F20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="38">
         <v>21855</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3080,7 +3304,7 @@
         <v>47</v>
       </c>
       <c r="K20" s="25">
-        <f>VLOOKUP(L20,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L20,user_profile!$B$3:$D$11,3,)</f>
         <v>4</v>
       </c>
       <c r="L20" s="10" t="s">
@@ -3141,7 +3365,7 @@
       <c r="AD20" s="5">
         <v>13054</v>
       </c>
-      <c r="AE20" s="38" t="s">
+      <c r="AE20" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3162,7 +3386,7 @@
       <c r="F21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="38">
         <v>21885</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3175,7 +3399,7 @@
         <v>47</v>
       </c>
       <c r="K21" s="25">
-        <f>VLOOKUP(L21,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L21,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L21" s="10" t="s">
@@ -3236,7 +3460,7 @@
       <c r="AD21" s="5">
         <v>13054</v>
       </c>
-      <c r="AE21" s="38" t="s">
+      <c r="AE21" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3257,7 +3481,7 @@
       <c r="F22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="38">
         <v>12785</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3270,7 +3494,7 @@
         <v>47</v>
       </c>
       <c r="K22" s="25">
-        <f>VLOOKUP(L22,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L22,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
@@ -3331,7 +3555,7 @@
       <c r="AD22" s="5">
         <v>13054</v>
       </c>
-      <c r="AE22" s="38" t="s">
+      <c r="AE22" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3352,7 +3576,7 @@
       <c r="F23" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="38">
         <v>23815</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3365,7 +3589,7 @@
         <v>47</v>
       </c>
       <c r="K23" s="25">
-        <f>VLOOKUP(L23,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L23,user_profile!$B$3:$D$11,3,)</f>
         <v>1</v>
       </c>
       <c r="L23" s="10" t="s">
@@ -3426,7 +3650,7 @@
       <c r="AD23" s="5">
         <v>13054</v>
       </c>
-      <c r="AE23" s="38" t="s">
+      <c r="AE23" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3447,7 +3671,7 @@
       <c r="F24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="38">
         <v>21976</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -3460,7 +3684,7 @@
         <v>47</v>
       </c>
       <c r="K24" s="25">
-        <f>VLOOKUP(L24,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L24,user_profile!$B$3:$D$11,3,)</f>
         <v>3</v>
       </c>
       <c r="L24" s="10" t="s">
@@ -3521,7 +3745,7 @@
       <c r="AD24" s="5">
         <v>13054</v>
       </c>
-      <c r="AE24" s="38" t="s">
+      <c r="AE24" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3542,7 +3766,7 @@
       <c r="F25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="38">
         <v>22007</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -3555,7 +3779,7 @@
         <v>47</v>
       </c>
       <c r="K25" s="25">
-        <f>VLOOKUP(L25,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L25,user_profile!$B$3:$D$11,3,)</f>
         <v>7</v>
       </c>
       <c r="L25" s="10" t="s">
@@ -3616,7 +3840,7 @@
       <c r="AD25" s="5">
         <v>13054</v>
       </c>
-      <c r="AE25" s="38" t="s">
+      <c r="AE25" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3637,7 +3861,7 @@
       <c r="F26" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="38">
         <v>22037</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -3650,7 +3874,7 @@
         <v>47</v>
       </c>
       <c r="K26" s="25">
-        <f>VLOOKUP(L26,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L26,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L26" s="10" t="s">
@@ -3711,7 +3935,7 @@
       <c r="AD26" s="5">
         <v>13054</v>
       </c>
-      <c r="AE26" s="38" t="s">
+      <c r="AE26" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3732,7 +3956,7 @@
       <c r="F27" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="38">
         <v>13667</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -3745,7 +3969,7 @@
         <v>47</v>
       </c>
       <c r="K27" s="25">
-        <f>VLOOKUP(L27,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L27,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L27" s="10" t="s">
@@ -3806,7 +4030,7 @@
       <c r="AD27" s="5">
         <v>13054</v>
       </c>
-      <c r="AE27" s="38" t="s">
+      <c r="AE27" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3827,7 +4051,7 @@
       <c r="F28" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="38">
         <v>22098</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -3840,7 +4064,7 @@
         <v>47</v>
       </c>
       <c r="K28" s="25">
-        <f>VLOOKUP(L28,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L28,user_profile!$B$3:$D$11,3,)</f>
         <v>6</v>
       </c>
       <c r="L28" s="10" t="s">
@@ -3901,7 +4125,7 @@
       <c r="AD28" s="5">
         <v>13054</v>
       </c>
-      <c r="AE28" s="38" t="s">
+      <c r="AE28" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3922,7 +4146,7 @@
       <c r="F29" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="38">
         <v>21879</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -3935,7 +4159,7 @@
         <v>47</v>
       </c>
       <c r="K29" s="25">
-        <f>VLOOKUP(L29,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L29,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L29" s="10" t="s">
@@ -3996,7 +4220,7 @@
       <c r="AD29" s="5">
         <v>13054</v>
       </c>
-      <c r="AE29" s="38" t="s">
+      <c r="AE29" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4017,7 +4241,7 @@
       <c r="F30" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="38">
         <v>22160</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -4030,7 +4254,7 @@
         <v>47</v>
       </c>
       <c r="K30" s="25">
-        <f>VLOOKUP(L30,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L30,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L30" s="10" t="s">
@@ -4091,7 +4315,7 @@
       <c r="AD30" s="5">
         <v>13054</v>
       </c>
-      <c r="AE30" s="38" t="s">
+      <c r="AE30" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4112,7 +4336,7 @@
       <c r="F31" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="38">
         <v>22190</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -4125,7 +4349,7 @@
         <v>47</v>
       </c>
       <c r="K31" s="25">
-        <f>VLOOKUP(L31,user_profile!$B$2:$D$10,3,)</f>
+        <f>VLOOKUP(L31,user_profile!$B$3:$D$11,3,)</f>
         <v>9</v>
       </c>
       <c r="L31" s="10" t="s">
@@ -4186,7 +4410,7 @@
       <c r="AD31" s="25">
         <v>13054</v>
       </c>
-      <c r="AE31" s="38" t="s">
+      <c r="AE31" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5313,7 +5537,7 @@
       <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="44" t="str">
+      <c r="K2" s="39" t="str">
         <f>CONCATENATE(A2,":",B2,":",C2,":",D2,":",E2,":",F2,":",G2,":",H2,":",I2,":",J2)</f>
         <v>admin::::::Admin User, Maestro Administrator::tcsh:admin</v>
       </c>
@@ -5332,7 +5556,7 @@
       <c r="J3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="44" t="str">
+      <c r="K3" s="39" t="str">
         <f t="shared" ref="K3:K25" si="0">CONCATENATE(A3,":",B3,":",C3,":",D3,":",E3,":",F3,":",G3,":",H3,":",I3,":",J3)</f>
         <v>demo::::::Demo User, Maestro Demonstrator::tcsh:demo</v>
       </c>
@@ -5351,7 +5575,7 @@
       <c r="J4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="44" t="str">
+      <c r="K4" s="39" t="str">
         <f t="shared" si="0"/>
         <v>bjenks::::::Barcoe Jenks, Electronics Engineer::tcsh:appleton</v>
       </c>
@@ -5370,7 +5594,7 @@
       <c r="J5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="44" t="str">
+      <c r="K5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>bswift::::::Barton Swift, President::tcsh:appleton</v>
       </c>
@@ -5389,7 +5613,7 @@
       <c r="J6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="44" t="str">
+      <c r="K6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>barmstrong::::::Bub Armstrong, Mechanical Engineer::tcsh:appleton</v>
       </c>
@@ -5408,7 +5632,7 @@
       <c r="J7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="44" t="str">
+      <c r="K7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>fmason::::::Frank Mason, Engineering Project Coordinator::tcsh:appleton</v>
       </c>
@@ -5427,7 +5651,7 @@
       <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="44" t="str">
+      <c r="K8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>gjackson::::::Garret Jackson, Production Planner::tcsh:appleton</v>
       </c>
@@ -5446,7 +5670,7 @@
       <c r="J9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="44" t="str">
+      <c r="K9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>hbaldwin::::::Hank Baldwin, Lead Hand::tcsh:appleton</v>
       </c>
@@ -5465,7 +5689,7 @@
       <c r="J10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="44" t="str">
+      <c r="K10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>hrandall::::::Helen Randall, AP Clerk::tcsh:appleton</v>
       </c>
@@ -5484,7 +5708,7 @@
       <c r="J11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="44" t="str">
+      <c r="K11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>jwood::::::Jacab Wood, Sales Agent::tcsh:appleton</v>
       </c>
@@ -5503,7 +5727,7 @@
       <c r="J12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="44" t="str">
+      <c r="K12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>jperiod::::::James Period, Director, Sales &amp; Marketing::tcsh:appleton</v>
       </c>
@@ -5522,7 +5746,7 @@
       <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="44" t="str">
+      <c r="K13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>jhaddon::::::Jennie Haddon, Buyer::tcsh:appleton</v>
       </c>
@@ -5541,7 +5765,7 @@
       <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="44" t="str">
+      <c r="K14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>jmorse::::::Jennie Morse, AR Clerk::tcsh:appleton</v>
       </c>
@@ -5560,7 +5784,7 @@
       <c r="J15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="44" t="str">
+      <c r="K15" s="39" t="str">
         <f t="shared" si="0"/>
         <v>jsharp::::::John Sharp, Director, Prod Mgmt::tcsh:appleton</v>
       </c>
@@ -5579,7 +5803,7 @@
       <c r="J16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="44" t="str">
+      <c r="K16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>mbaggert::::::Martha Baggert, Director, Human Resources::tcsh:appleton</v>
       </c>
@@ -5598,7 +5822,7 @@
       <c r="J17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="44" t="str">
+      <c r="K17" s="39" t="str">
         <f t="shared" si="0"/>
         <v>mnestor::::::Mary Nestor, Director, MIS-IT::tcsh:appleton</v>
       </c>
@@ -5617,7 +5841,7 @@
       <c r="J18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="44" t="str">
+      <c r="K18" s="39" t="str">
         <f t="shared" si="0"/>
         <v>mblair::::::Minnie Blair, Software Engineer::tcsh:appleton</v>
       </c>
@@ -5636,7 +5860,7 @@
       <c r="J19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="44" t="str">
+      <c r="K19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>mdelazes::::::Miquel DeLazes, Director, Manufacturing::tcsh:appleton</v>
       </c>
@@ -5655,7 +5879,7 @@
       <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="44" t="str">
+      <c r="K20" s="39" t="str">
         <f t="shared" si="0"/>
         <v>nnewton::::::Ned Newton, Chief Financial Officer::tcsh:appleton</v>
       </c>
@@ -5674,7 +5898,7 @@
       <c r="J21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="44" t="str">
+      <c r="K21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>rsampson::::::Rad Sampson, Director, Quality::tcsh:appleton</v>
       </c>
@@ -5693,7 +5917,7 @@
       <c r="J22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="44" t="str">
+      <c r="K22" s="39" t="str">
         <f t="shared" si="0"/>
         <v>smalloy::::::Sarah Malloy, Receiver::tcsh:appleton</v>
       </c>
@@ -5712,7 +5936,7 @@
       <c r="J23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="44" t="str">
+      <c r="K23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>tswift::::::Tom Swift, Director, Engineering::tcsh:appleton</v>
       </c>
@@ -5731,7 +5955,7 @@
       <c r="J24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="44" t="str">
+      <c r="K24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>wdamon::::::Wakefield Damon, Technical Writer::tcsh:appleton</v>
       </c>
@@ -5750,7 +5974,7 @@
       <c r="J25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="44" t="str">
+      <c r="K25" s="39" t="str">
         <f t="shared" si="0"/>
         <v>wcrawford::::::William Crawford, Director, Legal::tcsh:appleton</v>
       </c>
@@ -5784,34 +6008,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>282</v>
+      <c r="J1" s="36" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5836,17 +6060,17 @@
         <v>admin@swiftconstructioncompany.net</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I2" s="7" t="str">
         <f>master!H8</f>
         <v>admin</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>286</v>
+      <c r="J2" s="37" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5871,17 +6095,17 @@
         <v>admin@swiftconstructioncompany.net</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I3" s="7" t="str">
         <f>master!H9</f>
         <v>demo</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>287</v>
+      <c r="J3" s="34" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5910,16 +6134,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I4" s="7" t="str">
         <f>master!H10</f>
         <v>bjenks</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5945,16 +6169,16 @@
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I5" s="7" t="str">
         <f>master!H11</f>
         <v>bswift</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5984,16 +6208,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I6" s="7" t="str">
         <f>master!H12</f>
         <v>barmstrong</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6023,16 +6247,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I7" s="7" t="str">
         <f>master!H13</f>
         <v>fmason</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6062,16 +6286,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I8" s="7" t="str">
         <f>master!H14</f>
         <v>gjackson</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6101,16 +6325,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7" t="str">
         <f>master!H15</f>
         <v>hbaldwin</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6140,16 +6364,16 @@
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I10" s="7" t="str">
         <f>master!H16</f>
         <v>hrandall</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6179,16 +6403,16 @@
         <v>cn=James Period,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7" t="str">
         <f>master!H17</f>
         <v>jwood</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6218,16 +6442,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I12" s="7" t="str">
         <f>master!H18</f>
         <v>jperiod</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6257,16 +6481,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I13" s="7" t="str">
         <f>master!H19</f>
         <v>jhaddon</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6296,16 +6520,16 @@
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I14" s="7" t="str">
         <f>master!H20</f>
         <v>jmorse</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6335,16 +6559,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7" t="str">
         <f>master!H21</f>
         <v>jsharp</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6374,16 +6598,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7" t="str">
         <f>master!H22</f>
         <v>mbaggert</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6413,16 +6637,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7" t="str">
         <f>master!H23</f>
         <v>mnestor</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6452,16 +6676,16 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7" t="str">
         <f>master!H24</f>
         <v>mblair</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6491,16 +6715,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I19" s="7" t="str">
         <f>master!H25</f>
         <v>mdelazes</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6530,16 +6754,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I20" s="7" t="str">
         <f>master!H26</f>
         <v>nnewton</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6569,16 +6793,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I21" s="7" t="str">
         <f>master!H27</f>
         <v>rsampson</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6608,16 +6832,16 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I22" s="7" t="str">
         <f>master!H28</f>
         <v>smalloy</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6647,16 +6871,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7" t="str">
         <f>master!H29</f>
         <v>tswift</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6686,16 +6910,16 @@
         <v>cn=John Sharp,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I24" s="7" t="str">
         <f>master!H30</f>
         <v>wdamon</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6725,16 +6949,16 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I25" s="7" t="str">
         <f>master!H31</f>
         <v>wcrawford</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="34" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6750,548 +6974,626 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" style="7" customWidth="1"/>
     <col min="3" max="3" width="46.296875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" style="32" customWidth="1"/>
-    <col min="5" max="24" width="5.69921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" style="27" customWidth="1"/>
+    <col min="5" max="27" width="5.69921875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="171" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="43"/>
+    </row>
+    <row r="2" spans="1:27" ht="171" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="46" t="s">
+      <c r="E2" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="J2" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="K2" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="L2" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="M2" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="O2" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="P2" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="Q2" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="R2" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="S2" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="T2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="V2" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="Q1" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="R1" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="S1" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="T1" s="46" t="s">
+      <c r="W2" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="X2" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="Y2" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="Z2" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="AA2" s="45" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="30">
+      <c r="C3" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="48">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="R3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA3" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="48">
+        <v>2</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="D5" s="48">
+        <v>3</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="X5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA5" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="30">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="D6" s="48">
+        <v>4</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="30">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="X4" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="D7" s="48">
+        <v>5</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="V7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="30">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="D8" s="48">
+        <v>6</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="V8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="30">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="X6" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="D9" s="48">
+        <v>7</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y9" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="30">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="D10" s="48">
+        <v>8</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>9</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="30">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" s="30">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="D11" s="51">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="30">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="30" t="s">
-        <v>264</v>
+      <c r="E11" s="54"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y11" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="51" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7300,7 +7602,7 @@
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0.39410000000000001" bottom="0.39410000000000001" header="0" footer="0"/>
-  <pageSetup paperSize="5" scale="86" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="79" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7323,10 +7625,10 @@
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="28" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7335,10 +7637,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>292</v>
+        <v>271</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7346,10 +7648,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>293</v>
+        <v>272</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7370,23 +7672,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>288</v>
+      <c r="A1" s="30" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>304</v>
+      <c r="A5" s="30" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7402,12 +7704,12 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>294</v>
+      <c r="A9" s="30" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7415,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7423,7 +7725,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7431,12 +7733,12 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>295</v>
+      <c r="A14" s="30" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7452,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7762,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/protected/data/master/user.xlsx
+++ b/protected/data/master/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="552" windowWidth="18876" windowHeight="8676" activeTab="4"/>
+    <workbookView xWindow="228" yWindow="552" windowWidth="18876" windowHeight="8676" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="user-system" sheetId="2" r:id="rId3"/>
     <sheet name="user-ldap" sheetId="7" r:id="rId4"/>
     <sheet name="user_profile" sheetId="4" r:id="rId5"/>
-    <sheet name="user_status" sheetId="5" r:id="rId6"/>
-    <sheet name="README" sheetId="8" r:id="rId7"/>
+    <sheet name="user_profile (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="user_status" sheetId="5" r:id="rId7"/>
+    <sheet name="README" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">user!$B$1:$I$25</definedName>
@@ -117,8 +118,44 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is referenced in the user profile lookup on the master worksheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Read project member</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="334">
   <si>
     <t>Reference Parameters</t>
   </si>
@@ -1094,6 +1131,42 @@
   </si>
   <si>
     <t>Create/Read/Update/NO-DELETE (all data)</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Read-only access to the project and issues</t>
+  </si>
+  <si>
+    <t>Full administrative access to the project and issues</t>
+  </si>
+  <si>
+    <t>Limited admin access to the project and issues (no delete)</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>PARTS&amp;VENDORS ROLES</t>
+  </si>
+  <si>
+    <t>Parts&amp;Vendors Authorization Items</t>
+  </si>
+  <si>
+    <t>PROJECTS AND PROJECT ISSUES (HIERARCHICAL, TOP-TO-BOTTOM)</t>
   </si>
 </sst>
 </file>
@@ -1194,12 +1267,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="31">
@@ -1561,7 +1640,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1692,6 +1771,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6976,7 +7074,9 @@
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7608,6 +7708,1156 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AP16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="46.296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="7" customWidth="1"/>
+    <col min="6" max="23" width="4.69921875" style="7" customWidth="1"/>
+    <col min="24" max="42" width="5.69921875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="43"/>
+    </row>
+    <row r="2" spans="1:42" ht="171" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA2" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB2" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC2" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD2" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE2" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF2" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG2" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH2" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ2" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK2" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL2" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM2" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN2" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="AO2" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP2" s="45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="W3" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="X3" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP3" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="48">
+        <v>2</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="W4" s="48"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="64"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U6" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="48"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="48"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="W8" s="48"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="48"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="64"/>
+    </row>
+    <row r="10" spans="1:42" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <v>3</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="48">
+        <v>3</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO10" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP10" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="48">
+        <v>4</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="48">
+        <v>5</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ12" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK12" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN12" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
+        <v>6</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="48">
+        <v>6</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB13" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN13" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
+        <v>7</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="48">
+        <v>7</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN14" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>8</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="48">
+        <v>8</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE15" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF15" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN15" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
+        <v>9</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="51">
+        <v>9</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN16" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="51" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0" right="0" top="0.39410000000000001" bottom="0.39410000000000001" header="0" footer="0"/>
+  <pageSetup paperSize="5" scale="87" fitToWidth="2" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
@@ -7660,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
